--- a/data/uzbekistan_data.xlsx
+++ b/data/uzbekistan_data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="185">
   <si>
     <t>Region</t>
   </si>
@@ -516,12 +516,6 @@
   </si>
   <si>
     <t>Republic of Uzbekistan</t>
-  </si>
-  <si>
-    <t>Jizzakh</t>
-  </si>
-  <si>
-    <t>Navoi</t>
   </si>
   <si>
     <t>Population</t>
@@ -5085,7 +5079,7 @@
     </row>
     <row r="3">
       <c r="A3" s="60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" s="59">
         <v>23.4</v>
@@ -5509,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3">
         <v>2000.0</v>
@@ -5580,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="64">
         <v>10091.0</v>
@@ -5651,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="66">
         <v>3703.0</v>
@@ -5722,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="66">
         <v>6388.0</v>
@@ -5793,7 +5787,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="64">
         <v>741.0</v>
@@ -5864,7 +5858,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="66">
         <v>372.0</v>
@@ -5935,7 +5929,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="66">
         <v>369.0</v>
@@ -6006,7 +6000,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="64">
         <v>682.0</v>
@@ -6077,7 +6071,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" s="66">
         <v>296.0</v>
@@ -6148,7 +6142,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10" s="66">
         <v>386.0</v>
@@ -6219,7 +6213,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="64">
         <v>543.0</v>
@@ -6290,7 +6284,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="66">
         <v>165.0</v>
@@ -6361,7 +6355,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C13" s="66">
         <v>378.0</v>
@@ -6432,7 +6426,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" s="64">
         <v>390.0</v>
@@ -6503,7 +6497,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="66">
         <v>107.0</v>
@@ -6574,7 +6568,7 @@
         <v>50</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="66">
         <v>283.0</v>
@@ -6645,7 +6639,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="64">
         <v>1105.0</v>
@@ -6716,7 +6710,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C18" s="64">
         <v>240.0</v>
@@ -6787,7 +6781,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" s="64">
         <v>865.0</v>
@@ -6858,7 +6852,7 @@
         <v>80</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C20" s="66">
         <v>285.0</v>
@@ -6929,7 +6923,7 @@
         <v>80</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C21" s="66">
         <v>135.0</v>
@@ -7000,7 +6994,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C22" s="66">
         <v>150.0</v>
@@ -7071,7 +7065,7 @@
         <v>88</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" s="64">
         <v>807.0</v>
@@ -7142,7 +7136,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="66">
         <v>413.0</v>
@@ -7213,7 +7207,7 @@
         <v>88</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25" s="66">
         <v>394.0</v>
@@ -7284,7 +7278,7 @@
         <v>99</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C26" s="64">
         <v>1000.0</v>
@@ -7355,7 +7349,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C27" s="66">
         <v>209.0</v>
@@ -7426,7 +7420,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28" s="66">
         <v>791.0</v>
@@ -7497,7 +7491,7 @@
         <v>106</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C29" s="64">
         <v>930.0</v>
@@ -7568,7 +7562,7 @@
         <v>106</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" s="66">
         <v>168.0</v>
@@ -7639,7 +7633,7 @@
         <v>106</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31" s="66">
         <v>762.0</v>
@@ -7710,7 +7704,7 @@
         <v>113</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C32" s="64">
         <v>292.0</v>
@@ -7781,7 +7775,7 @@
         <v>113</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C33" s="66">
         <v>86.0</v>
@@ -7852,7 +7846,7 @@
         <v>113</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C34" s="66">
         <v>206.0</v>
@@ -7923,7 +7917,7 @@
         <v>122</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C35" s="64">
         <v>865.0</v>
@@ -7994,7 +7988,7 @@
         <v>122</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C36" s="66">
         <v>313.0</v>
@@ -8065,7 +8059,7 @@
         <v>122</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37" s="66">
         <v>552.0</v>
@@ -8136,7 +8130,7 @@
         <v>129</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C38" s="64">
         <v>1040.0</v>
@@ -8207,7 +8201,7 @@
         <v>129</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C39" s="66">
         <v>290.0</v>
@@ -8278,7 +8272,7 @@
         <v>129</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40" s="66">
         <v>750.0</v>
@@ -8349,7 +8343,7 @@
         <v>134</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C41" s="64">
         <v>796.0</v>
@@ -8420,7 +8414,7 @@
         <v>134</v>
       </c>
       <c r="B42" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C42" s="66">
         <v>294.0</v>
@@ -8491,7 +8485,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C43" s="66">
         <v>502.0</v>
@@ -8562,7 +8556,7 @@
         <v>141</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C44" s="64">
         <v>615.0</v>
@@ -8633,7 +8627,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C45" s="66">
         <v>615.0</v>
@@ -8704,7 +8698,7 @@
         <v>141</v>
       </c>
       <c r="B46" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -11980,7 +11974,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="69">
         <v>180.6</v>
@@ -13543,7 +13537,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="69">
         <v>1396.4</v>
@@ -14856,7 +14850,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="69">
         <v>211.6</v>
@@ -16437,7 +16431,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="69">
         <v>3742.9</v>
@@ -17028,7 +17022,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="64">
         <v>176.0</v>
@@ -18276,8 +18270,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>160</v>
+      <c r="A6" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B6" s="13">
         <v>24049.0</v>
@@ -18418,8 +18412,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>161</v>
+      <c r="A8" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="13">
         <v>15305.0</v>
@@ -19171,7 +19165,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="64">
         <v>15.1</v>
@@ -20754,7 +20748,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="69">
         <v>833.7</v>
@@ -22335,7 +22329,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="69">
         <v>337.3</v>
@@ -22926,7 +22920,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="64">
         <v>17.3</v>
@@ -23909,7 +23903,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="69">
         <v>805.0</v>
@@ -25357,7 +25351,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="69">
         <v>225.6</v>
@@ -25948,7 +25942,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="64">
         <v>11.5</v>
@@ -26940,7 +26934,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="69">
         <v>613.6</v>
@@ -27531,7 +27525,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="55">
         <v>28.2</v>
@@ -35624,58 +35618,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="H1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="S1" s="30" t="s">
         <v>177</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2">
@@ -38009,7 +38003,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="48">
         <v>60.0</v>

--- a/data/uzbekistan_data.xlsx
+++ b/data/uzbekistan_data.xlsx
@@ -10,8 +10,8 @@
     <sheet state="visible" name="pop-male" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="pop-urbanrural" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="pop-female" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="age-structure" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="fertility" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="fertility" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="age-structure" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="hospitals" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="beds" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="nurses" sheetId="12" r:id="rId15"/>
@@ -30,6 +30,8 @@
     <sheet state="visible" name="preg-compl" sheetId="25" r:id="rId28"/>
     <sheet state="visible" name="skin" sheetId="26" r:id="rId29"/>
     <sheet state="visible" name="TB" sheetId="27" r:id="rId30"/>
+    <sheet state="visible" name="intestinal" sheetId="28" r:id="rId31"/>
+    <sheet state="visible" name="hep" sheetId="29" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="507">
   <si>
     <t>Region</t>
   </si>
@@ -1564,6 +1566,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="####"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="10.0"/>
@@ -1739,11 +1744,6 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1753,6 +1753,11 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
@@ -1769,7 +1774,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1878,6 +1883,24 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1890,7 +1913,7 @@
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1916,24 +1939,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -1971,13 +1976,13 @@
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1998,7 +2003,7 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2036,6 +2041,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2122,6 +2136,14 @@
 </file>
 
 <file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -32212,6 +32234,3172 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="90">
+        <v>1991.0</v>
+      </c>
+      <c r="C1" s="90">
+        <v>1992.0</v>
+      </c>
+      <c r="D1" s="90">
+        <v>1993.0</v>
+      </c>
+      <c r="E1" s="90">
+        <v>1994.0</v>
+      </c>
+      <c r="F1" s="90">
+        <v>1995.0</v>
+      </c>
+      <c r="G1" s="90">
+        <v>1996.0</v>
+      </c>
+      <c r="H1" s="90">
+        <v>1997.0</v>
+      </c>
+      <c r="I1" s="90">
+        <v>1998.0</v>
+      </c>
+      <c r="J1" s="90">
+        <v>1999.0</v>
+      </c>
+      <c r="K1" s="90">
+        <v>2000.0</v>
+      </c>
+      <c r="L1" s="90">
+        <v>2001.0</v>
+      </c>
+      <c r="M1" s="90">
+        <v>2002.0</v>
+      </c>
+      <c r="N1" s="90">
+        <v>2003.0</v>
+      </c>
+      <c r="O1" s="90">
+        <v>2004.0</v>
+      </c>
+      <c r="P1" s="90">
+        <v>2005.0</v>
+      </c>
+      <c r="Q1" s="90">
+        <v>2006.0</v>
+      </c>
+      <c r="R1" s="90">
+        <v>2007.0</v>
+      </c>
+      <c r="S1" s="90">
+        <v>2008.0</v>
+      </c>
+      <c r="T1" s="90">
+        <v>2009.0</v>
+      </c>
+      <c r="U1" s="90">
+        <v>2010.0</v>
+      </c>
+      <c r="V1" s="90">
+        <v>2011.0</v>
+      </c>
+      <c r="W1" s="90">
+        <v>2012.0</v>
+      </c>
+      <c r="X1" s="90">
+        <v>2013.0</v>
+      </c>
+      <c r="Y1" s="90">
+        <v>2014.0</v>
+      </c>
+      <c r="Z1" s="90">
+        <v>2015.0</v>
+      </c>
+      <c r="AA1" s="90">
+        <v>2016.0</v>
+      </c>
+      <c r="AB1" s="90">
+        <v>2017.0</v>
+      </c>
+      <c r="AC1" s="90">
+        <v>2018.0</v>
+      </c>
+      <c r="AD1" s="90">
+        <v>2019.0</v>
+      </c>
+      <c r="AE1" s="90">
+        <v>2020.0</v>
+      </c>
+      <c r="AF1" s="90">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78">
+        <v>120333.0</v>
+      </c>
+      <c r="C2" s="78">
+        <v>111997.0</v>
+      </c>
+      <c r="D2" s="78">
+        <v>116364.0</v>
+      </c>
+      <c r="E2" s="78">
+        <v>110387.0</v>
+      </c>
+      <c r="F2" s="78">
+        <v>90774.0</v>
+      </c>
+      <c r="G2" s="78">
+        <v>98302.0</v>
+      </c>
+      <c r="H2" s="78">
+        <v>84551.0</v>
+      </c>
+      <c r="I2" s="78">
+        <v>70671.0</v>
+      </c>
+      <c r="J2" s="78">
+        <v>57932.0</v>
+      </c>
+      <c r="K2" s="78">
+        <v>44650.0</v>
+      </c>
+      <c r="L2" s="78">
+        <v>42430.0</v>
+      </c>
+      <c r="M2" s="78">
+        <v>40042.0</v>
+      </c>
+      <c r="N2" s="78">
+        <v>34213.0</v>
+      </c>
+      <c r="O2" s="78">
+        <v>33230.0</v>
+      </c>
+      <c r="P2" s="78">
+        <v>36560.0</v>
+      </c>
+      <c r="Q2" s="78">
+        <v>35463.0</v>
+      </c>
+      <c r="R2" s="78">
+        <v>32454.0</v>
+      </c>
+      <c r="S2" s="78">
+        <v>33366.0</v>
+      </c>
+      <c r="T2" s="78">
+        <v>32660.0</v>
+      </c>
+      <c r="U2" s="78">
+        <v>33769.0</v>
+      </c>
+      <c r="V2" s="78">
+        <v>31750.0</v>
+      </c>
+      <c r="W2" s="56">
+        <v>33174.0</v>
+      </c>
+      <c r="X2" s="56">
+        <v>35125.0</v>
+      </c>
+      <c r="Y2" s="56">
+        <v>38220.0</v>
+      </c>
+      <c r="Z2" s="56">
+        <v>39010.0</v>
+      </c>
+      <c r="AA2" s="56">
+        <v>37538.0</v>
+      </c>
+      <c r="AB2" s="56">
+        <v>44599.0</v>
+      </c>
+      <c r="AC2" s="56">
+        <v>40819.0</v>
+      </c>
+      <c r="AD2" s="56">
+        <v>38968.0</v>
+      </c>
+      <c r="AE2" s="56">
+        <v>18894.0</v>
+      </c>
+      <c r="AF2" s="56">
+        <v>37488.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="73">
+        <v>6745.0</v>
+      </c>
+      <c r="C3" s="73">
+        <v>5594.0</v>
+      </c>
+      <c r="D3" s="73">
+        <v>6198.0</v>
+      </c>
+      <c r="E3" s="73">
+        <v>4593.0</v>
+      </c>
+      <c r="F3" s="73">
+        <v>4339.0</v>
+      </c>
+      <c r="G3" s="73">
+        <v>3643.0</v>
+      </c>
+      <c r="H3" s="73">
+        <v>4104.0</v>
+      </c>
+      <c r="I3" s="73">
+        <v>3236.0</v>
+      </c>
+      <c r="J3" s="73">
+        <v>2854.0</v>
+      </c>
+      <c r="K3" s="73">
+        <v>2527.0</v>
+      </c>
+      <c r="L3" s="73">
+        <v>2696.0</v>
+      </c>
+      <c r="M3" s="73">
+        <v>2655.0</v>
+      </c>
+      <c r="N3" s="73">
+        <v>1733.0</v>
+      </c>
+      <c r="O3" s="73">
+        <v>2322.0</v>
+      </c>
+      <c r="P3" s="73">
+        <v>2191.0</v>
+      </c>
+      <c r="Q3" s="73">
+        <v>3017.0</v>
+      </c>
+      <c r="R3" s="73">
+        <v>2004.0</v>
+      </c>
+      <c r="S3" s="73">
+        <v>3081.0</v>
+      </c>
+      <c r="T3" s="73">
+        <v>2953.0</v>
+      </c>
+      <c r="U3" s="73">
+        <v>3439.0</v>
+      </c>
+      <c r="V3" s="73">
+        <v>3174.0</v>
+      </c>
+      <c r="W3" s="57">
+        <v>3026.0</v>
+      </c>
+      <c r="X3" s="57">
+        <v>3613.0</v>
+      </c>
+      <c r="Y3" s="57">
+        <v>3652.0</v>
+      </c>
+      <c r="Z3" s="57">
+        <v>3200.0</v>
+      </c>
+      <c r="AA3" s="57">
+        <v>2952.0</v>
+      </c>
+      <c r="AB3" s="57">
+        <v>3929.0</v>
+      </c>
+      <c r="AC3" s="57">
+        <v>2754.0</v>
+      </c>
+      <c r="AD3" s="57">
+        <v>1447.0</v>
+      </c>
+      <c r="AE3" s="57">
+        <v>1059.0</v>
+      </c>
+      <c r="AF3" s="57">
+        <v>3944.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="73">
+        <v>7676.0</v>
+      </c>
+      <c r="C4" s="73">
+        <v>7154.0</v>
+      </c>
+      <c r="D4" s="73">
+        <v>7102.0</v>
+      </c>
+      <c r="E4" s="73">
+        <v>7496.0</v>
+      </c>
+      <c r="F4" s="73">
+        <v>7156.0</v>
+      </c>
+      <c r="G4" s="73">
+        <v>4650.0</v>
+      </c>
+      <c r="H4" s="73">
+        <v>4555.0</v>
+      </c>
+      <c r="I4" s="73">
+        <v>4278.0</v>
+      </c>
+      <c r="J4" s="73">
+        <v>4051.0</v>
+      </c>
+      <c r="K4" s="73">
+        <v>3091.0</v>
+      </c>
+      <c r="L4" s="73">
+        <v>2706.0</v>
+      </c>
+      <c r="M4" s="73">
+        <v>2467.0</v>
+      </c>
+      <c r="N4" s="73">
+        <v>2326.0</v>
+      </c>
+      <c r="O4" s="73">
+        <v>2436.0</v>
+      </c>
+      <c r="P4" s="73">
+        <v>2274.0</v>
+      </c>
+      <c r="Q4" s="73">
+        <v>2350.0</v>
+      </c>
+      <c r="R4" s="73">
+        <v>2338.0</v>
+      </c>
+      <c r="S4" s="73">
+        <v>2289.0</v>
+      </c>
+      <c r="T4" s="73">
+        <v>2132.0</v>
+      </c>
+      <c r="U4" s="73">
+        <v>2209.0</v>
+      </c>
+      <c r="V4" s="73">
+        <v>2010.0</v>
+      </c>
+      <c r="W4" s="57">
+        <v>1858.0</v>
+      </c>
+      <c r="X4" s="57">
+        <v>1900.0</v>
+      </c>
+      <c r="Y4" s="57">
+        <v>1865.0</v>
+      </c>
+      <c r="Z4" s="57">
+        <v>1890.0</v>
+      </c>
+      <c r="AA4" s="57">
+        <v>2082.0</v>
+      </c>
+      <c r="AB4" s="57">
+        <v>2072.0</v>
+      </c>
+      <c r="AC4" s="57">
+        <v>1001.0</v>
+      </c>
+      <c r="AD4" s="57">
+        <v>1196.0</v>
+      </c>
+      <c r="AE4" s="57">
+        <v>883.0</v>
+      </c>
+      <c r="AF4" s="57">
+        <v>1194.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="73">
+        <v>12610.0</v>
+      </c>
+      <c r="C5" s="73">
+        <v>8070.0</v>
+      </c>
+      <c r="D5" s="73">
+        <v>7359.0</v>
+      </c>
+      <c r="E5" s="73">
+        <v>7044.0</v>
+      </c>
+      <c r="F5" s="73">
+        <v>3650.0</v>
+      </c>
+      <c r="G5" s="73">
+        <v>7138.0</v>
+      </c>
+      <c r="H5" s="73">
+        <v>4375.0</v>
+      </c>
+      <c r="I5" s="73">
+        <v>4121.0</v>
+      </c>
+      <c r="J5" s="73">
+        <v>2782.0</v>
+      </c>
+      <c r="K5" s="73">
+        <v>1971.0</v>
+      </c>
+      <c r="L5" s="73">
+        <v>2235.0</v>
+      </c>
+      <c r="M5" s="73">
+        <v>1869.0</v>
+      </c>
+      <c r="N5" s="73">
+        <v>1149.0</v>
+      </c>
+      <c r="O5" s="73">
+        <v>1207.0</v>
+      </c>
+      <c r="P5" s="73">
+        <v>1328.0</v>
+      </c>
+      <c r="Q5" s="73">
+        <v>1064.0</v>
+      </c>
+      <c r="R5" s="73">
+        <v>935.0</v>
+      </c>
+      <c r="S5" s="73">
+        <v>942.0</v>
+      </c>
+      <c r="T5" s="73">
+        <v>872.0</v>
+      </c>
+      <c r="U5" s="73">
+        <v>1292.0</v>
+      </c>
+      <c r="V5" s="73">
+        <v>1343.0</v>
+      </c>
+      <c r="W5" s="57">
+        <v>1679.0</v>
+      </c>
+      <c r="X5" s="57">
+        <v>2322.0</v>
+      </c>
+      <c r="Y5" s="57">
+        <v>1985.0</v>
+      </c>
+      <c r="Z5" s="57">
+        <v>1324.0</v>
+      </c>
+      <c r="AA5" s="57">
+        <v>1394.0</v>
+      </c>
+      <c r="AB5" s="57">
+        <v>1804.0</v>
+      </c>
+      <c r="AC5" s="57">
+        <v>1692.0</v>
+      </c>
+      <c r="AD5" s="57">
+        <v>1260.0</v>
+      </c>
+      <c r="AE5" s="57">
+        <v>525.0</v>
+      </c>
+      <c r="AF5" s="57">
+        <v>778.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="73">
+        <v>3532.0</v>
+      </c>
+      <c r="C6" s="73">
+        <v>3461.0</v>
+      </c>
+      <c r="D6" s="73">
+        <v>3717.0</v>
+      </c>
+      <c r="E6" s="73">
+        <v>4132.0</v>
+      </c>
+      <c r="F6" s="73">
+        <v>2581.0</v>
+      </c>
+      <c r="G6" s="73">
+        <v>2412.0</v>
+      </c>
+      <c r="H6" s="73">
+        <v>1975.0</v>
+      </c>
+      <c r="I6" s="73">
+        <v>1833.0</v>
+      </c>
+      <c r="J6" s="73">
+        <v>1763.0</v>
+      </c>
+      <c r="K6" s="73">
+        <v>1327.0</v>
+      </c>
+      <c r="L6" s="73">
+        <v>1271.0</v>
+      </c>
+      <c r="M6" s="73">
+        <v>1441.0</v>
+      </c>
+      <c r="N6" s="73">
+        <v>1151.0</v>
+      </c>
+      <c r="O6" s="73">
+        <v>1012.0</v>
+      </c>
+      <c r="P6" s="73">
+        <v>1461.0</v>
+      </c>
+      <c r="Q6" s="73">
+        <v>1320.0</v>
+      </c>
+      <c r="R6" s="73">
+        <v>1230.0</v>
+      </c>
+      <c r="S6" s="73">
+        <v>1484.0</v>
+      </c>
+      <c r="T6" s="73">
+        <v>1531.0</v>
+      </c>
+      <c r="U6" s="73">
+        <v>1420.0</v>
+      </c>
+      <c r="V6" s="73">
+        <v>1364.0</v>
+      </c>
+      <c r="W6" s="57">
+        <v>1360.0</v>
+      </c>
+      <c r="X6" s="57">
+        <v>1657.0</v>
+      </c>
+      <c r="Y6" s="57">
+        <v>1937.0</v>
+      </c>
+      <c r="Z6" s="57">
+        <v>1873.0</v>
+      </c>
+      <c r="AA6" s="57">
+        <v>1580.0</v>
+      </c>
+      <c r="AB6" s="57">
+        <v>2135.0</v>
+      </c>
+      <c r="AC6" s="57">
+        <v>1804.0</v>
+      </c>
+      <c r="AD6" s="57">
+        <v>1238.0</v>
+      </c>
+      <c r="AE6" s="57">
+        <v>737.0</v>
+      </c>
+      <c r="AF6" s="57">
+        <v>972.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="73">
+        <v>9216.0</v>
+      </c>
+      <c r="C7" s="73">
+        <v>9133.0</v>
+      </c>
+      <c r="D7" s="73">
+        <v>12175.0</v>
+      </c>
+      <c r="E7" s="73">
+        <v>8881.0</v>
+      </c>
+      <c r="F7" s="73">
+        <v>5968.0</v>
+      </c>
+      <c r="G7" s="73">
+        <v>9880.0</v>
+      </c>
+      <c r="H7" s="73">
+        <v>9246.0</v>
+      </c>
+      <c r="I7" s="73">
+        <v>8716.0</v>
+      </c>
+      <c r="J7" s="73">
+        <v>4229.0</v>
+      </c>
+      <c r="K7" s="73">
+        <v>3072.0</v>
+      </c>
+      <c r="L7" s="73">
+        <v>2663.0</v>
+      </c>
+      <c r="M7" s="73">
+        <v>2159.0</v>
+      </c>
+      <c r="N7" s="73">
+        <v>1775.0</v>
+      </c>
+      <c r="O7" s="73">
+        <v>1523.0</v>
+      </c>
+      <c r="P7" s="73">
+        <v>1585.0</v>
+      </c>
+      <c r="Q7" s="73">
+        <v>1440.0</v>
+      </c>
+      <c r="R7" s="73">
+        <v>1384.0</v>
+      </c>
+      <c r="S7" s="73">
+        <v>1287.0</v>
+      </c>
+      <c r="T7" s="73">
+        <v>1338.0</v>
+      </c>
+      <c r="U7" s="73">
+        <v>1329.0</v>
+      </c>
+      <c r="V7" s="73">
+        <v>1841.0</v>
+      </c>
+      <c r="W7" s="57">
+        <v>2192.0</v>
+      </c>
+      <c r="X7" s="57">
+        <v>1790.0</v>
+      </c>
+      <c r="Y7" s="57">
+        <v>2837.0</v>
+      </c>
+      <c r="Z7" s="57">
+        <v>2788.0</v>
+      </c>
+      <c r="AA7" s="57">
+        <v>2422.0</v>
+      </c>
+      <c r="AB7" s="57">
+        <v>2997.0</v>
+      </c>
+      <c r="AC7" s="57">
+        <v>2746.0</v>
+      </c>
+      <c r="AD7" s="57">
+        <v>3500.0</v>
+      </c>
+      <c r="AE7" s="57">
+        <v>895.0</v>
+      </c>
+      <c r="AF7" s="57">
+        <v>2662.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="73">
+        <v>4250.0</v>
+      </c>
+      <c r="D8" s="73">
+        <v>4497.0</v>
+      </c>
+      <c r="E8" s="73">
+        <v>5653.0</v>
+      </c>
+      <c r="F8" s="73">
+        <v>4029.0</v>
+      </c>
+      <c r="G8" s="73">
+        <v>5683.0</v>
+      </c>
+      <c r="H8" s="73">
+        <v>4019.0</v>
+      </c>
+      <c r="I8" s="73">
+        <v>3475.0</v>
+      </c>
+      <c r="J8" s="73">
+        <v>2652.0</v>
+      </c>
+      <c r="K8" s="73">
+        <v>2282.0</v>
+      </c>
+      <c r="L8" s="73">
+        <v>2493.0</v>
+      </c>
+      <c r="M8" s="73">
+        <v>2140.0</v>
+      </c>
+      <c r="N8" s="73">
+        <v>2190.0</v>
+      </c>
+      <c r="O8" s="73">
+        <v>2201.0</v>
+      </c>
+      <c r="P8" s="73">
+        <v>2067.0</v>
+      </c>
+      <c r="Q8" s="73">
+        <v>2364.0</v>
+      </c>
+      <c r="R8" s="73">
+        <v>2514.0</v>
+      </c>
+      <c r="S8" s="73">
+        <v>2663.0</v>
+      </c>
+      <c r="T8" s="73">
+        <v>2219.0</v>
+      </c>
+      <c r="U8" s="73">
+        <v>2275.0</v>
+      </c>
+      <c r="V8" s="73">
+        <v>1776.0</v>
+      </c>
+      <c r="W8" s="57">
+        <v>2065.0</v>
+      </c>
+      <c r="X8" s="57">
+        <v>1810.0</v>
+      </c>
+      <c r="Y8" s="57">
+        <v>1986.0</v>
+      </c>
+      <c r="Z8" s="57">
+        <v>1733.0</v>
+      </c>
+      <c r="AA8" s="57">
+        <v>1937.0</v>
+      </c>
+      <c r="AB8" s="57">
+        <v>1638.0</v>
+      </c>
+      <c r="AC8" s="57">
+        <v>1299.0</v>
+      </c>
+      <c r="AD8" s="57">
+        <v>685.0</v>
+      </c>
+      <c r="AE8" s="57">
+        <v>238.0</v>
+      </c>
+      <c r="AF8" s="57">
+        <v>531.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="73">
+        <v>9355.0</v>
+      </c>
+      <c r="C9" s="73">
+        <v>9275.0</v>
+      </c>
+      <c r="D9" s="73">
+        <v>10563.0</v>
+      </c>
+      <c r="E9" s="73">
+        <v>9732.0</v>
+      </c>
+      <c r="F9" s="73">
+        <v>9417.0</v>
+      </c>
+      <c r="G9" s="73">
+        <v>8697.0</v>
+      </c>
+      <c r="H9" s="73">
+        <v>7513.0</v>
+      </c>
+      <c r="I9" s="73">
+        <v>7330.0</v>
+      </c>
+      <c r="J9" s="73">
+        <v>6050.0</v>
+      </c>
+      <c r="K9" s="73">
+        <v>4362.0</v>
+      </c>
+      <c r="L9" s="73">
+        <v>3292.0</v>
+      </c>
+      <c r="M9" s="73">
+        <v>2930.0</v>
+      </c>
+      <c r="N9" s="73">
+        <v>2719.0</v>
+      </c>
+      <c r="O9" s="73">
+        <v>2873.0</v>
+      </c>
+      <c r="P9" s="73">
+        <v>2663.0</v>
+      </c>
+      <c r="Q9" s="73">
+        <v>2299.0</v>
+      </c>
+      <c r="R9" s="73">
+        <v>1421.0</v>
+      </c>
+      <c r="S9" s="73">
+        <v>2393.0</v>
+      </c>
+      <c r="T9" s="73">
+        <v>2519.0</v>
+      </c>
+      <c r="U9" s="73">
+        <v>2764.0</v>
+      </c>
+      <c r="V9" s="73">
+        <v>2234.0</v>
+      </c>
+      <c r="W9" s="57">
+        <v>2244.0</v>
+      </c>
+      <c r="X9" s="57">
+        <v>1925.0</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>1754.0</v>
+      </c>
+      <c r="Z9" s="57">
+        <v>2241.0</v>
+      </c>
+      <c r="AA9" s="57">
+        <v>2469.0</v>
+      </c>
+      <c r="AB9" s="57">
+        <v>2320.0</v>
+      </c>
+      <c r="AC9" s="57">
+        <v>2093.0</v>
+      </c>
+      <c r="AD9" s="57">
+        <v>1592.0</v>
+      </c>
+      <c r="AE9" s="57">
+        <v>689.0</v>
+      </c>
+      <c r="AF9" s="57">
+        <v>758.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="73">
+        <v>12737.0</v>
+      </c>
+      <c r="C10" s="73">
+        <v>10342.0</v>
+      </c>
+      <c r="D10" s="73">
+        <v>8906.0</v>
+      </c>
+      <c r="E10" s="73">
+        <v>10739.0</v>
+      </c>
+      <c r="F10" s="73">
+        <v>8694.0</v>
+      </c>
+      <c r="G10" s="73">
+        <v>9772.0</v>
+      </c>
+      <c r="H10" s="73">
+        <v>6202.0</v>
+      </c>
+      <c r="I10" s="73">
+        <v>4640.0</v>
+      </c>
+      <c r="J10" s="73">
+        <v>4107.0</v>
+      </c>
+      <c r="K10" s="73">
+        <v>3378.0</v>
+      </c>
+      <c r="L10" s="73">
+        <v>3121.0</v>
+      </c>
+      <c r="M10" s="73">
+        <v>3006.0</v>
+      </c>
+      <c r="N10" s="73">
+        <v>2390.0</v>
+      </c>
+      <c r="O10" s="73">
+        <v>2338.0</v>
+      </c>
+      <c r="P10" s="73">
+        <v>2811.0</v>
+      </c>
+      <c r="Q10" s="73">
+        <v>2957.0</v>
+      </c>
+      <c r="R10" s="73">
+        <v>2789.0</v>
+      </c>
+      <c r="S10" s="73">
+        <v>3044.0</v>
+      </c>
+      <c r="T10" s="73">
+        <v>2958.0</v>
+      </c>
+      <c r="U10" s="73">
+        <v>2905.0</v>
+      </c>
+      <c r="V10" s="73">
+        <v>2577.0</v>
+      </c>
+      <c r="W10" s="57">
+        <v>3276.0</v>
+      </c>
+      <c r="X10" s="57">
+        <v>3158.0</v>
+      </c>
+      <c r="Y10" s="57">
+        <v>3545.0</v>
+      </c>
+      <c r="Z10" s="57">
+        <v>4605.0</v>
+      </c>
+      <c r="AA10" s="57">
+        <v>4536.0</v>
+      </c>
+      <c r="AB10" s="57">
+        <v>4724.0</v>
+      </c>
+      <c r="AC10" s="57">
+        <v>4396.0</v>
+      </c>
+      <c r="AD10" s="57">
+        <v>4140.0</v>
+      </c>
+      <c r="AE10" s="57">
+        <v>2118.0</v>
+      </c>
+      <c r="AF10" s="57">
+        <v>4797.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="73">
+        <v>11007.0</v>
+      </c>
+      <c r="C11" s="73">
+        <v>10639.0</v>
+      </c>
+      <c r="D11" s="73">
+        <v>10505.0</v>
+      </c>
+      <c r="E11" s="73">
+        <v>8617.0</v>
+      </c>
+      <c r="F11" s="73">
+        <v>5268.0</v>
+      </c>
+      <c r="G11" s="73">
+        <v>7325.0</v>
+      </c>
+      <c r="H11" s="73">
+        <v>5182.0</v>
+      </c>
+      <c r="I11" s="73">
+        <v>4993.0</v>
+      </c>
+      <c r="J11" s="73">
+        <v>4032.0</v>
+      </c>
+      <c r="K11" s="73">
+        <v>2649.0</v>
+      </c>
+      <c r="L11" s="73">
+        <v>2466.0</v>
+      </c>
+      <c r="M11" s="73">
+        <v>2124.0</v>
+      </c>
+      <c r="N11" s="73">
+        <v>1880.0</v>
+      </c>
+      <c r="O11" s="73">
+        <v>1697.0</v>
+      </c>
+      <c r="P11" s="73">
+        <v>1684.0</v>
+      </c>
+      <c r="Q11" s="73">
+        <v>1615.0</v>
+      </c>
+      <c r="R11" s="73">
+        <v>1846.0</v>
+      </c>
+      <c r="S11" s="73">
+        <v>1801.0</v>
+      </c>
+      <c r="T11" s="73">
+        <v>1820.0</v>
+      </c>
+      <c r="U11" s="73">
+        <v>2214.0</v>
+      </c>
+      <c r="V11" s="73">
+        <v>2083.0</v>
+      </c>
+      <c r="W11" s="57">
+        <v>2881.0</v>
+      </c>
+      <c r="X11" s="57">
+        <v>2482.0</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>2637.0</v>
+      </c>
+      <c r="Z11" s="57">
+        <v>2698.0</v>
+      </c>
+      <c r="AA11" s="57">
+        <v>2312.0</v>
+      </c>
+      <c r="AB11" s="57">
+        <v>3664.0</v>
+      </c>
+      <c r="AC11" s="57">
+        <v>3148.0</v>
+      </c>
+      <c r="AD11" s="57">
+        <v>2242.0</v>
+      </c>
+      <c r="AE11" s="57">
+        <v>1473.0</v>
+      </c>
+      <c r="AF11" s="57">
+        <v>3042.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="73">
+        <v>3830.0</v>
+      </c>
+      <c r="C12" s="73">
+        <v>3320.0</v>
+      </c>
+      <c r="D12" s="73">
+        <v>3597.0</v>
+      </c>
+      <c r="E12" s="73">
+        <v>3545.0</v>
+      </c>
+      <c r="F12" s="73">
+        <v>3004.0</v>
+      </c>
+      <c r="G12" s="73">
+        <v>3054.0</v>
+      </c>
+      <c r="H12" s="73">
+        <v>2498.0</v>
+      </c>
+      <c r="I12" s="73">
+        <v>2057.0</v>
+      </c>
+      <c r="J12" s="73">
+        <v>1756.0</v>
+      </c>
+      <c r="K12" s="73">
+        <v>1250.0</v>
+      </c>
+      <c r="L12" s="73">
+        <v>1156.0</v>
+      </c>
+      <c r="M12" s="73">
+        <v>1211.0</v>
+      </c>
+      <c r="N12" s="73">
+        <v>1084.0</v>
+      </c>
+      <c r="O12" s="73">
+        <v>1124.0</v>
+      </c>
+      <c r="P12" s="73">
+        <v>1613.0</v>
+      </c>
+      <c r="Q12" s="73">
+        <v>1497.0</v>
+      </c>
+      <c r="R12" s="73">
+        <v>1299.0</v>
+      </c>
+      <c r="S12" s="73">
+        <v>1589.0</v>
+      </c>
+      <c r="T12" s="73">
+        <v>1506.0</v>
+      </c>
+      <c r="U12" s="73">
+        <v>1538.0</v>
+      </c>
+      <c r="V12" s="73">
+        <v>1002.0</v>
+      </c>
+      <c r="W12" s="57">
+        <v>977.0</v>
+      </c>
+      <c r="X12" s="57">
+        <v>1338.0</v>
+      </c>
+      <c r="Y12" s="57">
+        <v>1181.0</v>
+      </c>
+      <c r="Z12" s="57">
+        <v>1116.0</v>
+      </c>
+      <c r="AA12" s="57">
+        <v>922.0</v>
+      </c>
+      <c r="AB12" s="57">
+        <v>1079.0</v>
+      </c>
+      <c r="AC12" s="57">
+        <v>984.0</v>
+      </c>
+      <c r="AD12" s="57">
+        <v>833.0</v>
+      </c>
+      <c r="AE12" s="57">
+        <v>355.0</v>
+      </c>
+      <c r="AF12" s="57">
+        <v>646.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="73">
+        <v>13071.0</v>
+      </c>
+      <c r="C13" s="73">
+        <v>12047.0</v>
+      </c>
+      <c r="D13" s="73">
+        <v>12781.0</v>
+      </c>
+      <c r="E13" s="73">
+        <v>12331.0</v>
+      </c>
+      <c r="F13" s="73">
+        <v>11872.0</v>
+      </c>
+      <c r="G13" s="73">
+        <v>12186.0</v>
+      </c>
+      <c r="H13" s="73">
+        <v>12293.0</v>
+      </c>
+      <c r="I13" s="73">
+        <v>8956.0</v>
+      </c>
+      <c r="J13" s="73">
+        <v>7810.0</v>
+      </c>
+      <c r="K13" s="73">
+        <v>5399.0</v>
+      </c>
+      <c r="L13" s="73">
+        <v>5314.0</v>
+      </c>
+      <c r="M13" s="73">
+        <v>5520.0</v>
+      </c>
+      <c r="N13" s="73">
+        <v>4815.0</v>
+      </c>
+      <c r="O13" s="73">
+        <v>4724.0</v>
+      </c>
+      <c r="P13" s="73">
+        <v>6401.0</v>
+      </c>
+      <c r="Q13" s="73">
+        <v>5519.0</v>
+      </c>
+      <c r="R13" s="73">
+        <v>6160.0</v>
+      </c>
+      <c r="S13" s="73">
+        <v>5273.0</v>
+      </c>
+      <c r="T13" s="73">
+        <v>5097.0</v>
+      </c>
+      <c r="U13" s="73">
+        <v>5211.0</v>
+      </c>
+      <c r="V13" s="73">
+        <v>5384.0</v>
+      </c>
+      <c r="W13" s="57">
+        <v>4699.0</v>
+      </c>
+      <c r="X13" s="57">
+        <v>4560.0</v>
+      </c>
+      <c r="Y13" s="57">
+        <v>4793.0</v>
+      </c>
+      <c r="Z13" s="57">
+        <v>5178.0</v>
+      </c>
+      <c r="AA13" s="57">
+        <v>4747.0</v>
+      </c>
+      <c r="AB13" s="57">
+        <v>5796.0</v>
+      </c>
+      <c r="AC13" s="57">
+        <v>5531.0</v>
+      </c>
+      <c r="AD13" s="57">
+        <v>4960.0</v>
+      </c>
+      <c r="AE13" s="57">
+        <v>2585.0</v>
+      </c>
+      <c r="AF13" s="57">
+        <v>5250.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="73">
+        <v>11098.0</v>
+      </c>
+      <c r="C14" s="73">
+        <v>10629.0</v>
+      </c>
+      <c r="D14" s="73">
+        <v>11112.0</v>
+      </c>
+      <c r="E14" s="73">
+        <v>10402.0</v>
+      </c>
+      <c r="F14" s="73">
+        <v>11147.0</v>
+      </c>
+      <c r="G14" s="73">
+        <v>10540.0</v>
+      </c>
+      <c r="H14" s="73">
+        <v>9001.0</v>
+      </c>
+      <c r="I14" s="73">
+        <v>7151.0</v>
+      </c>
+      <c r="J14" s="73">
+        <v>6990.0</v>
+      </c>
+      <c r="K14" s="73">
+        <v>5580.0</v>
+      </c>
+      <c r="L14" s="73">
+        <v>5807.0</v>
+      </c>
+      <c r="M14" s="73">
+        <v>4927.0</v>
+      </c>
+      <c r="N14" s="73">
+        <v>4669.0</v>
+      </c>
+      <c r="O14" s="73">
+        <v>4141.0</v>
+      </c>
+      <c r="P14" s="73">
+        <v>4306.0</v>
+      </c>
+      <c r="Q14" s="73">
+        <v>4249.0</v>
+      </c>
+      <c r="R14" s="73">
+        <v>3994.0</v>
+      </c>
+      <c r="S14" s="73">
+        <v>3661.0</v>
+      </c>
+      <c r="T14" s="73">
+        <v>3444.0</v>
+      </c>
+      <c r="U14" s="73">
+        <v>3006.0</v>
+      </c>
+      <c r="V14" s="73">
+        <v>2961.0</v>
+      </c>
+      <c r="W14" s="57">
+        <v>2388.0</v>
+      </c>
+      <c r="X14" s="57">
+        <v>2975.0</v>
+      </c>
+      <c r="Y14" s="57">
+        <v>2854.0</v>
+      </c>
+      <c r="Z14" s="57">
+        <v>2615.0</v>
+      </c>
+      <c r="AA14" s="57">
+        <v>2435.0</v>
+      </c>
+      <c r="AB14" s="57">
+        <v>2538.0</v>
+      </c>
+      <c r="AC14" s="57">
+        <v>2435.0</v>
+      </c>
+      <c r="AD14" s="57">
+        <v>837.0</v>
+      </c>
+      <c r="AE14" s="57">
+        <v>669.0</v>
+      </c>
+      <c r="AF14" s="57">
+        <v>2203.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="73">
+        <v>9114.0</v>
+      </c>
+      <c r="C15" s="73">
+        <v>7811.0</v>
+      </c>
+      <c r="D15" s="73">
+        <v>6955.0</v>
+      </c>
+      <c r="E15" s="73">
+        <v>7114.0</v>
+      </c>
+      <c r="F15" s="73">
+        <v>4902.0</v>
+      </c>
+      <c r="G15" s="73">
+        <v>4439.0</v>
+      </c>
+      <c r="H15" s="73">
+        <v>4261.0</v>
+      </c>
+      <c r="I15" s="73">
+        <v>4038.0</v>
+      </c>
+      <c r="J15" s="73">
+        <v>2878.0</v>
+      </c>
+      <c r="K15" s="73">
+        <v>2234.0</v>
+      </c>
+      <c r="L15" s="73">
+        <v>1624.0</v>
+      </c>
+      <c r="M15" s="73">
+        <v>1748.0</v>
+      </c>
+      <c r="N15" s="73">
+        <v>1482.0</v>
+      </c>
+      <c r="O15" s="73">
+        <v>1080.0</v>
+      </c>
+      <c r="P15" s="73">
+        <v>1014.0</v>
+      </c>
+      <c r="Q15" s="73">
+        <v>1061.0</v>
+      </c>
+      <c r="R15" s="73">
+        <v>1083.0</v>
+      </c>
+      <c r="S15" s="73">
+        <v>1278.0</v>
+      </c>
+      <c r="T15" s="73">
+        <v>1567.0</v>
+      </c>
+      <c r="U15" s="73">
+        <v>1518.0</v>
+      </c>
+      <c r="V15" s="73">
+        <v>1359.0</v>
+      </c>
+      <c r="W15" s="57">
+        <v>1276.0</v>
+      </c>
+      <c r="X15" s="57">
+        <v>1331.0</v>
+      </c>
+      <c r="Y15" s="57">
+        <v>1267.0</v>
+      </c>
+      <c r="Z15" s="57">
+        <v>1140.0</v>
+      </c>
+      <c r="AA15" s="57">
+        <v>1146.0</v>
+      </c>
+      <c r="AB15" s="57">
+        <v>1117.0</v>
+      </c>
+      <c r="AC15" s="57">
+        <v>1001.0</v>
+      </c>
+      <c r="AD15" s="57">
+        <v>642.0</v>
+      </c>
+      <c r="AE15" s="57">
+        <v>356.0</v>
+      </c>
+      <c r="AF15" s="57">
+        <v>597.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="73">
+        <v>10342.0</v>
+      </c>
+      <c r="C16" s="73">
+        <v>10272.0</v>
+      </c>
+      <c r="D16" s="73">
+        <v>10897.0</v>
+      </c>
+      <c r="E16" s="73">
+        <v>10108.0</v>
+      </c>
+      <c r="F16" s="73">
+        <v>8747.0</v>
+      </c>
+      <c r="G16" s="73">
+        <v>8883.0</v>
+      </c>
+      <c r="H16" s="73">
+        <v>9327.0</v>
+      </c>
+      <c r="I16" s="73">
+        <v>5847.0</v>
+      </c>
+      <c r="J16" s="73">
+        <v>5978.0</v>
+      </c>
+      <c r="K16" s="73">
+        <v>5528.0</v>
+      </c>
+      <c r="L16" s="73">
+        <v>5586.0</v>
+      </c>
+      <c r="M16" s="73">
+        <v>5845.0</v>
+      </c>
+      <c r="N16" s="73">
+        <v>4850.0</v>
+      </c>
+      <c r="O16" s="73">
+        <v>4552.0</v>
+      </c>
+      <c r="P16" s="73">
+        <v>5162.0</v>
+      </c>
+      <c r="Q16" s="73">
+        <v>4711.0</v>
+      </c>
+      <c r="R16" s="73">
+        <v>3457.0</v>
+      </c>
+      <c r="S16" s="73">
+        <v>2581.0</v>
+      </c>
+      <c r="T16" s="73">
+        <v>2704.0</v>
+      </c>
+      <c r="U16" s="73">
+        <v>2649.0</v>
+      </c>
+      <c r="V16" s="73">
+        <v>2642.0</v>
+      </c>
+      <c r="W16" s="57">
+        <v>3253.0</v>
+      </c>
+      <c r="X16" s="57">
+        <v>4264.0</v>
+      </c>
+      <c r="Y16" s="57">
+        <v>5927.0</v>
+      </c>
+      <c r="Z16" s="57">
+        <v>6609.0</v>
+      </c>
+      <c r="AA16" s="57">
+        <v>6604.0</v>
+      </c>
+      <c r="AB16" s="57">
+        <v>8786.0</v>
+      </c>
+      <c r="AC16" s="57">
+        <v>9935.0</v>
+      </c>
+      <c r="AD16" s="57">
+        <v>14396.0</v>
+      </c>
+      <c r="AE16" s="57">
+        <v>6312.0</v>
+      </c>
+      <c r="AF16" s="57">
+        <v>10114.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91">
+        <v>1991.0</v>
+      </c>
+      <c r="C1" s="91">
+        <v>1992.0</v>
+      </c>
+      <c r="D1" s="91">
+        <v>1993.0</v>
+      </c>
+      <c r="E1" s="91">
+        <v>1994.0</v>
+      </c>
+      <c r="F1" s="91">
+        <v>1995.0</v>
+      </c>
+      <c r="G1" s="91">
+        <v>1996.0</v>
+      </c>
+      <c r="H1" s="91">
+        <v>1997.0</v>
+      </c>
+      <c r="I1" s="91">
+        <v>1998.0</v>
+      </c>
+      <c r="J1" s="91">
+        <v>1999.0</v>
+      </c>
+      <c r="K1" s="91">
+        <v>2000.0</v>
+      </c>
+      <c r="L1" s="91">
+        <v>2001.0</v>
+      </c>
+      <c r="M1" s="91">
+        <v>2002.0</v>
+      </c>
+      <c r="N1" s="91">
+        <v>2003.0</v>
+      </c>
+      <c r="O1" s="91">
+        <v>2004.0</v>
+      </c>
+      <c r="P1" s="91">
+        <v>2005.0</v>
+      </c>
+      <c r="Q1" s="91">
+        <v>2006.0</v>
+      </c>
+      <c r="R1" s="91">
+        <v>2007.0</v>
+      </c>
+      <c r="S1" s="91">
+        <v>2008.0</v>
+      </c>
+      <c r="T1" s="91">
+        <v>2009.0</v>
+      </c>
+      <c r="U1" s="91">
+        <v>2010.0</v>
+      </c>
+      <c r="V1" s="91">
+        <v>2011.0</v>
+      </c>
+      <c r="W1" s="91">
+        <v>2012.0</v>
+      </c>
+      <c r="X1" s="91">
+        <v>2013.0</v>
+      </c>
+      <c r="Y1" s="91">
+        <v>2014.0</v>
+      </c>
+      <c r="Z1" s="91">
+        <v>2015.0</v>
+      </c>
+      <c r="AA1" s="91">
+        <v>2016.0</v>
+      </c>
+      <c r="AB1" s="91">
+        <v>2017.0</v>
+      </c>
+      <c r="AC1" s="91">
+        <v>2018.0</v>
+      </c>
+      <c r="AD1" s="91">
+        <v>2019.0</v>
+      </c>
+      <c r="AE1" s="91">
+        <v>2020.0</v>
+      </c>
+      <c r="AF1" s="91">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78">
+        <v>141329.0</v>
+      </c>
+      <c r="C2" s="78">
+        <v>137625.0</v>
+      </c>
+      <c r="D2" s="78">
+        <v>136714.0</v>
+      </c>
+      <c r="E2" s="78">
+        <v>106622.0</v>
+      </c>
+      <c r="F2" s="78">
+        <v>161248.0</v>
+      </c>
+      <c r="G2" s="78">
+        <v>74740.0</v>
+      </c>
+      <c r="H2" s="78">
+        <v>143433.0</v>
+      </c>
+      <c r="I2" s="78">
+        <v>57927.0</v>
+      </c>
+      <c r="J2" s="78">
+        <v>38497.0</v>
+      </c>
+      <c r="K2" s="78">
+        <v>57846.0</v>
+      </c>
+      <c r="L2" s="78">
+        <v>40163.0</v>
+      </c>
+      <c r="M2" s="78">
+        <v>33391.0</v>
+      </c>
+      <c r="N2" s="78">
+        <v>29373.0</v>
+      </c>
+      <c r="O2" s="78">
+        <v>37744.0</v>
+      </c>
+      <c r="P2" s="78">
+        <v>30314.0</v>
+      </c>
+      <c r="Q2" s="78">
+        <v>29914.0</v>
+      </c>
+      <c r="R2" s="78">
+        <v>34029.0</v>
+      </c>
+      <c r="S2" s="78">
+        <v>32197.0</v>
+      </c>
+      <c r="T2" s="78">
+        <v>37474.0</v>
+      </c>
+      <c r="U2" s="78">
+        <v>36436.0</v>
+      </c>
+      <c r="V2" s="78">
+        <v>39455.0</v>
+      </c>
+      <c r="W2" s="56">
+        <v>29503.0</v>
+      </c>
+      <c r="X2" s="56">
+        <v>41727.0</v>
+      </c>
+      <c r="Y2" s="56">
+        <v>37927.0</v>
+      </c>
+      <c r="Z2" s="56">
+        <v>25772.0</v>
+      </c>
+      <c r="AA2" s="56">
+        <v>38132.0</v>
+      </c>
+      <c r="AB2" s="56">
+        <v>32102.0</v>
+      </c>
+      <c r="AC2" s="56">
+        <v>30983.0</v>
+      </c>
+      <c r="AD2" s="56">
+        <v>27279.0</v>
+      </c>
+      <c r="AE2" s="56">
+        <v>11485.0</v>
+      </c>
+      <c r="AF2" s="56">
+        <v>7903.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="73">
+        <v>6532.0</v>
+      </c>
+      <c r="C3" s="73">
+        <v>4799.0</v>
+      </c>
+      <c r="D3" s="73">
+        <v>5015.0</v>
+      </c>
+      <c r="E3" s="73">
+        <v>2898.0</v>
+      </c>
+      <c r="F3" s="73">
+        <v>3583.0</v>
+      </c>
+      <c r="G3" s="73">
+        <v>1513.0</v>
+      </c>
+      <c r="H3" s="73">
+        <v>2234.0</v>
+      </c>
+      <c r="I3" s="73">
+        <v>1916.0</v>
+      </c>
+      <c r="J3" s="73">
+        <v>1012.0</v>
+      </c>
+      <c r="K3" s="73">
+        <v>1298.0</v>
+      </c>
+      <c r="L3" s="73">
+        <v>1016.0</v>
+      </c>
+      <c r="M3" s="73">
+        <v>803.0</v>
+      </c>
+      <c r="N3" s="73">
+        <v>696.0</v>
+      </c>
+      <c r="O3" s="73">
+        <v>1629.0</v>
+      </c>
+      <c r="P3" s="73">
+        <v>1467.0</v>
+      </c>
+      <c r="Q3" s="73">
+        <v>1813.0</v>
+      </c>
+      <c r="R3" s="73">
+        <v>1926.0</v>
+      </c>
+      <c r="S3" s="73">
+        <v>2870.0</v>
+      </c>
+      <c r="T3" s="73">
+        <v>1255.0</v>
+      </c>
+      <c r="U3" s="73">
+        <v>1161.0</v>
+      </c>
+      <c r="V3" s="73">
+        <v>2777.0</v>
+      </c>
+      <c r="W3" s="57">
+        <v>1353.0</v>
+      </c>
+      <c r="X3" s="57">
+        <v>1219.0</v>
+      </c>
+      <c r="Y3" s="57">
+        <v>1438.0</v>
+      </c>
+      <c r="Z3" s="57">
+        <v>1596.0</v>
+      </c>
+      <c r="AA3" s="57">
+        <v>1661.0</v>
+      </c>
+      <c r="AB3" s="57">
+        <v>1320.0</v>
+      </c>
+      <c r="AC3" s="57">
+        <v>1488.0</v>
+      </c>
+      <c r="AD3" s="57">
+        <v>1075.0</v>
+      </c>
+      <c r="AE3" s="57">
+        <v>298.0</v>
+      </c>
+      <c r="AF3" s="57">
+        <v>104.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="73">
+        <v>16808.0</v>
+      </c>
+      <c r="C4" s="73">
+        <v>11375.0</v>
+      </c>
+      <c r="D4" s="73">
+        <v>16468.0</v>
+      </c>
+      <c r="E4" s="73">
+        <v>8370.0</v>
+      </c>
+      <c r="F4" s="73">
+        <v>16171.0</v>
+      </c>
+      <c r="G4" s="73">
+        <v>6407.0</v>
+      </c>
+      <c r="H4" s="73">
+        <v>10381.0</v>
+      </c>
+      <c r="I4" s="73">
+        <v>4616.0</v>
+      </c>
+      <c r="J4" s="73">
+        <v>3522.0</v>
+      </c>
+      <c r="K4" s="73">
+        <v>3583.0</v>
+      </c>
+      <c r="L4" s="73">
+        <v>3562.0</v>
+      </c>
+      <c r="M4" s="73">
+        <v>2859.0</v>
+      </c>
+      <c r="N4" s="73">
+        <v>2480.0</v>
+      </c>
+      <c r="O4" s="73">
+        <v>2947.0</v>
+      </c>
+      <c r="P4" s="73">
+        <v>2577.0</v>
+      </c>
+      <c r="Q4" s="73">
+        <v>2469.0</v>
+      </c>
+      <c r="R4" s="73">
+        <v>2867.0</v>
+      </c>
+      <c r="S4" s="73">
+        <v>2790.0</v>
+      </c>
+      <c r="T4" s="73">
+        <v>3450.0</v>
+      </c>
+      <c r="U4" s="73">
+        <v>4464.0</v>
+      </c>
+      <c r="V4" s="73">
+        <v>4516.0</v>
+      </c>
+      <c r="W4" s="57">
+        <v>3521.0</v>
+      </c>
+      <c r="X4" s="57">
+        <v>3772.0</v>
+      </c>
+      <c r="Y4" s="57">
+        <v>3762.0</v>
+      </c>
+      <c r="Z4" s="57">
+        <v>2855.0</v>
+      </c>
+      <c r="AA4" s="57">
+        <v>3199.0</v>
+      </c>
+      <c r="AB4" s="57">
+        <v>3353.0</v>
+      </c>
+      <c r="AC4" s="57">
+        <v>902.0</v>
+      </c>
+      <c r="AD4" s="57">
+        <v>2327.0</v>
+      </c>
+      <c r="AE4" s="57">
+        <v>973.0</v>
+      </c>
+      <c r="AF4" s="57">
+        <v>368.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="73">
+        <v>11514.0</v>
+      </c>
+      <c r="C5" s="73">
+        <v>9352.0</v>
+      </c>
+      <c r="D5" s="73">
+        <v>5923.0</v>
+      </c>
+      <c r="E5" s="73">
+        <v>6799.0</v>
+      </c>
+      <c r="F5" s="73">
+        <v>9975.0</v>
+      </c>
+      <c r="G5" s="73">
+        <v>3989.0</v>
+      </c>
+      <c r="H5" s="73">
+        <v>7972.0</v>
+      </c>
+      <c r="I5" s="73">
+        <v>2749.0</v>
+      </c>
+      <c r="J5" s="73">
+        <v>3054.0</v>
+      </c>
+      <c r="K5" s="73">
+        <v>5205.0</v>
+      </c>
+      <c r="L5" s="73">
+        <v>1791.0</v>
+      </c>
+      <c r="M5" s="73">
+        <v>2028.0</v>
+      </c>
+      <c r="N5" s="73">
+        <v>1864.0</v>
+      </c>
+      <c r="O5" s="73">
+        <v>1832.0</v>
+      </c>
+      <c r="P5" s="73">
+        <v>1217.0</v>
+      </c>
+      <c r="Q5" s="73">
+        <v>1468.0</v>
+      </c>
+      <c r="R5" s="73">
+        <v>1155.0</v>
+      </c>
+      <c r="S5" s="73">
+        <v>1360.0</v>
+      </c>
+      <c r="T5" s="73">
+        <v>1848.0</v>
+      </c>
+      <c r="U5" s="73">
+        <v>1796.0</v>
+      </c>
+      <c r="V5" s="73">
+        <v>2380.0</v>
+      </c>
+      <c r="W5" s="57">
+        <v>1001.0</v>
+      </c>
+      <c r="X5" s="57">
+        <v>2213.0</v>
+      </c>
+      <c r="Y5" s="57">
+        <v>1622.0</v>
+      </c>
+      <c r="Z5" s="57">
+        <v>710.0</v>
+      </c>
+      <c r="AA5" s="57">
+        <v>706.0</v>
+      </c>
+      <c r="AB5" s="57">
+        <v>446.0</v>
+      </c>
+      <c r="AC5" s="57">
+        <v>756.0</v>
+      </c>
+      <c r="AD5" s="57">
+        <v>782.0</v>
+      </c>
+      <c r="AE5" s="57">
+        <v>355.0</v>
+      </c>
+      <c r="AF5" s="57">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="73">
+        <v>3306.0</v>
+      </c>
+      <c r="C6" s="73">
+        <v>5590.0</v>
+      </c>
+      <c r="D6" s="73">
+        <v>3791.0</v>
+      </c>
+      <c r="E6" s="73">
+        <v>3577.0</v>
+      </c>
+      <c r="F6" s="73">
+        <v>4017.0</v>
+      </c>
+      <c r="G6" s="73">
+        <v>1944.0</v>
+      </c>
+      <c r="H6" s="73">
+        <v>3760.0</v>
+      </c>
+      <c r="I6" s="73">
+        <v>959.0</v>
+      </c>
+      <c r="J6" s="73">
+        <v>1256.0</v>
+      </c>
+      <c r="K6" s="73">
+        <v>1644.0</v>
+      </c>
+      <c r="L6" s="73">
+        <v>968.0</v>
+      </c>
+      <c r="M6" s="73">
+        <v>957.0</v>
+      </c>
+      <c r="N6" s="73">
+        <v>1268.0</v>
+      </c>
+      <c r="O6" s="73">
+        <v>1380.0</v>
+      </c>
+      <c r="P6" s="73">
+        <v>1050.0</v>
+      </c>
+      <c r="Q6" s="73">
+        <v>1190.0</v>
+      </c>
+      <c r="R6" s="73">
+        <v>1645.0</v>
+      </c>
+      <c r="S6" s="73">
+        <v>1235.0</v>
+      </c>
+      <c r="T6" s="73">
+        <v>1347.0</v>
+      </c>
+      <c r="U6" s="73">
+        <v>1171.0</v>
+      </c>
+      <c r="V6" s="73">
+        <v>1225.0</v>
+      </c>
+      <c r="W6" s="57">
+        <v>959.0</v>
+      </c>
+      <c r="X6" s="57">
+        <v>1890.0</v>
+      </c>
+      <c r="Y6" s="57">
+        <v>1246.0</v>
+      </c>
+      <c r="Z6" s="57">
+        <v>788.0</v>
+      </c>
+      <c r="AA6" s="57">
+        <v>1541.0</v>
+      </c>
+      <c r="AB6" s="57">
+        <v>1108.0</v>
+      </c>
+      <c r="AC6" s="57">
+        <v>1091.0</v>
+      </c>
+      <c r="AD6" s="57">
+        <v>952.0</v>
+      </c>
+      <c r="AE6" s="57">
+        <v>453.0</v>
+      </c>
+      <c r="AF6" s="57">
+        <v>291.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="73">
+        <v>10524.0</v>
+      </c>
+      <c r="C7" s="73">
+        <v>12567.0</v>
+      </c>
+      <c r="D7" s="73">
+        <v>10300.0</v>
+      </c>
+      <c r="E7" s="73">
+        <v>7263.0</v>
+      </c>
+      <c r="F7" s="73">
+        <v>9621.0</v>
+      </c>
+      <c r="G7" s="73">
+        <v>5091.0</v>
+      </c>
+      <c r="H7" s="73">
+        <v>11947.0</v>
+      </c>
+      <c r="I7" s="73">
+        <v>2933.0</v>
+      </c>
+      <c r="J7" s="73">
+        <v>2782.0</v>
+      </c>
+      <c r="K7" s="73">
+        <v>4110.0</v>
+      </c>
+      <c r="L7" s="73">
+        <v>1753.0</v>
+      </c>
+      <c r="M7" s="73">
+        <v>1750.0</v>
+      </c>
+      <c r="N7" s="73">
+        <v>2321.0</v>
+      </c>
+      <c r="O7" s="73">
+        <v>1959.0</v>
+      </c>
+      <c r="P7" s="73">
+        <v>1641.0</v>
+      </c>
+      <c r="Q7" s="73">
+        <v>1846.0</v>
+      </c>
+      <c r="R7" s="73">
+        <v>1975.0</v>
+      </c>
+      <c r="S7" s="73">
+        <v>1174.0</v>
+      </c>
+      <c r="T7" s="73">
+        <v>2206.0</v>
+      </c>
+      <c r="U7" s="73">
+        <v>2541.0</v>
+      </c>
+      <c r="V7" s="73">
+        <v>2443.0</v>
+      </c>
+      <c r="W7" s="57">
+        <v>1691.0</v>
+      </c>
+      <c r="X7" s="57">
+        <v>3216.0</v>
+      </c>
+      <c r="Y7" s="57">
+        <v>1553.0</v>
+      </c>
+      <c r="Z7" s="57">
+        <v>1267.0</v>
+      </c>
+      <c r="AA7" s="57">
+        <v>3281.0</v>
+      </c>
+      <c r="AB7" s="57">
+        <v>3628.0</v>
+      </c>
+      <c r="AC7" s="57">
+        <v>3870.0</v>
+      </c>
+      <c r="AD7" s="57">
+        <v>2062.0</v>
+      </c>
+      <c r="AE7" s="57">
+        <v>808.0</v>
+      </c>
+      <c r="AF7" s="57">
+        <v>1431.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>504</v>
+      </c>
+      <c r="C8" s="73">
+        <v>4379.0</v>
+      </c>
+      <c r="D8" s="73">
+        <v>4462.0</v>
+      </c>
+      <c r="E8" s="73">
+        <v>3914.0</v>
+      </c>
+      <c r="F8" s="73">
+        <v>6868.0</v>
+      </c>
+      <c r="G8" s="73">
+        <v>2672.0</v>
+      </c>
+      <c r="H8" s="73">
+        <v>5041.0</v>
+      </c>
+      <c r="I8" s="73">
+        <v>2758.0</v>
+      </c>
+      <c r="J8" s="73">
+        <v>1269.0</v>
+      </c>
+      <c r="K8" s="73">
+        <v>1709.0</v>
+      </c>
+      <c r="L8" s="73">
+        <v>1507.0</v>
+      </c>
+      <c r="M8" s="73">
+        <v>1124.0</v>
+      </c>
+      <c r="N8" s="73">
+        <v>735.0</v>
+      </c>
+      <c r="O8" s="73">
+        <v>688.0</v>
+      </c>
+      <c r="P8" s="73">
+        <v>674.0</v>
+      </c>
+      <c r="Q8" s="73">
+        <v>931.0</v>
+      </c>
+      <c r="R8" s="73">
+        <v>1039.0</v>
+      </c>
+      <c r="S8" s="73">
+        <v>1676.0</v>
+      </c>
+      <c r="T8" s="73">
+        <v>2959.0</v>
+      </c>
+      <c r="U8" s="73">
+        <v>1336.0</v>
+      </c>
+      <c r="V8" s="73">
+        <v>1287.0</v>
+      </c>
+      <c r="W8" s="57">
+        <v>1105.0</v>
+      </c>
+      <c r="X8" s="57">
+        <v>2108.0</v>
+      </c>
+      <c r="Y8" s="57">
+        <v>1948.0</v>
+      </c>
+      <c r="Z8" s="57">
+        <v>830.0</v>
+      </c>
+      <c r="AA8" s="57">
+        <v>1024.0</v>
+      </c>
+      <c r="AB8" s="57">
+        <v>701.0</v>
+      </c>
+      <c r="AC8" s="57">
+        <v>1191.0</v>
+      </c>
+      <c r="AD8" s="57">
+        <v>964.0</v>
+      </c>
+      <c r="AE8" s="57">
+        <v>279.0</v>
+      </c>
+      <c r="AF8" s="57">
+        <v>77.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="73">
+        <v>13561.0</v>
+      </c>
+      <c r="C9" s="73">
+        <v>16271.0</v>
+      </c>
+      <c r="D9" s="73">
+        <v>11064.0</v>
+      </c>
+      <c r="E9" s="73">
+        <v>14657.0</v>
+      </c>
+      <c r="F9" s="73">
+        <v>14852.0</v>
+      </c>
+      <c r="G9" s="73">
+        <v>8219.0</v>
+      </c>
+      <c r="H9" s="73">
+        <v>17657.0</v>
+      </c>
+      <c r="I9" s="73">
+        <v>6614.0</v>
+      </c>
+      <c r="J9" s="73">
+        <v>4291.0</v>
+      </c>
+      <c r="K9" s="73">
+        <v>5044.0</v>
+      </c>
+      <c r="L9" s="73">
+        <v>3992.0</v>
+      </c>
+      <c r="M9" s="73">
+        <v>3795.0</v>
+      </c>
+      <c r="N9" s="73">
+        <v>2892.0</v>
+      </c>
+      <c r="O9" s="73">
+        <v>3249.0</v>
+      </c>
+      <c r="P9" s="73">
+        <v>2624.0</v>
+      </c>
+      <c r="Q9" s="73">
+        <v>2752.0</v>
+      </c>
+      <c r="R9" s="73">
+        <v>4028.0</v>
+      </c>
+      <c r="S9" s="73">
+        <v>3063.0</v>
+      </c>
+      <c r="T9" s="73">
+        <v>4419.0</v>
+      </c>
+      <c r="U9" s="73">
+        <v>5179.0</v>
+      </c>
+      <c r="V9" s="73">
+        <v>4604.0</v>
+      </c>
+      <c r="W9" s="57">
+        <v>3682.0</v>
+      </c>
+      <c r="X9" s="57">
+        <v>3790.0</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>3730.0</v>
+      </c>
+      <c r="Z9" s="57">
+        <v>3542.0</v>
+      </c>
+      <c r="AA9" s="57">
+        <v>4590.0</v>
+      </c>
+      <c r="AB9" s="57">
+        <v>3553.0</v>
+      </c>
+      <c r="AC9" s="57">
+        <v>3989.0</v>
+      </c>
+      <c r="AD9" s="57">
+        <v>3362.0</v>
+      </c>
+      <c r="AE9" s="57">
+        <v>1032.0</v>
+      </c>
+      <c r="AF9" s="57">
+        <v>312.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="73">
+        <v>13433.0</v>
+      </c>
+      <c r="C10" s="73">
+        <v>17991.0</v>
+      </c>
+      <c r="D10" s="73">
+        <v>16721.0</v>
+      </c>
+      <c r="E10" s="73">
+        <v>11872.0</v>
+      </c>
+      <c r="F10" s="73">
+        <v>14908.0</v>
+      </c>
+      <c r="G10" s="73">
+        <v>7679.0</v>
+      </c>
+      <c r="H10" s="73">
+        <v>15129.0</v>
+      </c>
+      <c r="I10" s="73">
+        <v>4050.0</v>
+      </c>
+      <c r="J10" s="73">
+        <v>3453.0</v>
+      </c>
+      <c r="K10" s="73">
+        <v>5669.0</v>
+      </c>
+      <c r="L10" s="73">
+        <v>4303.0</v>
+      </c>
+      <c r="M10" s="73">
+        <v>3287.0</v>
+      </c>
+      <c r="N10" s="73">
+        <v>3326.0</v>
+      </c>
+      <c r="O10" s="73">
+        <v>4020.0</v>
+      </c>
+      <c r="P10" s="73">
+        <v>3189.0</v>
+      </c>
+      <c r="Q10" s="73">
+        <v>3057.0</v>
+      </c>
+      <c r="R10" s="73">
+        <v>3211.0</v>
+      </c>
+      <c r="S10" s="73">
+        <v>3689.0</v>
+      </c>
+      <c r="T10" s="73">
+        <v>3036.0</v>
+      </c>
+      <c r="U10" s="73">
+        <v>3078.0</v>
+      </c>
+      <c r="V10" s="73">
+        <v>3138.0</v>
+      </c>
+      <c r="W10" s="57">
+        <v>3059.0</v>
+      </c>
+      <c r="X10" s="57">
+        <v>3960.0</v>
+      </c>
+      <c r="Y10" s="57">
+        <v>4327.0</v>
+      </c>
+      <c r="Z10" s="57">
+        <v>4584.0</v>
+      </c>
+      <c r="AA10" s="57">
+        <v>3917.0</v>
+      </c>
+      <c r="AB10" s="57">
+        <v>3935.0</v>
+      </c>
+      <c r="AC10" s="57">
+        <v>4860.0</v>
+      </c>
+      <c r="AD10" s="57">
+        <v>4389.0</v>
+      </c>
+      <c r="AE10" s="57">
+        <v>1937.0</v>
+      </c>
+      <c r="AF10" s="57">
+        <v>2326.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="73">
+        <v>16398.0</v>
+      </c>
+      <c r="C11" s="73">
+        <v>6597.0</v>
+      </c>
+      <c r="D11" s="73">
+        <v>10021.0</v>
+      </c>
+      <c r="E11" s="73">
+        <v>3856.0</v>
+      </c>
+      <c r="F11" s="73">
+        <v>6111.0</v>
+      </c>
+      <c r="G11" s="73">
+        <v>3175.0</v>
+      </c>
+      <c r="H11" s="73">
+        <v>6440.0</v>
+      </c>
+      <c r="I11" s="73">
+        <v>1986.0</v>
+      </c>
+      <c r="J11" s="73">
+        <v>2179.0</v>
+      </c>
+      <c r="K11" s="73">
+        <v>2155.0</v>
+      </c>
+      <c r="L11" s="73">
+        <v>1377.0</v>
+      </c>
+      <c r="M11" s="73">
+        <v>2500.0</v>
+      </c>
+      <c r="N11" s="73">
+        <v>1109.0</v>
+      </c>
+      <c r="O11" s="73">
+        <v>1342.0</v>
+      </c>
+      <c r="P11" s="73">
+        <v>2065.0</v>
+      </c>
+      <c r="Q11" s="73">
+        <v>1633.0</v>
+      </c>
+      <c r="R11" s="73">
+        <v>1724.0</v>
+      </c>
+      <c r="S11" s="73">
+        <v>2385.0</v>
+      </c>
+      <c r="T11" s="73">
+        <v>3221.0</v>
+      </c>
+      <c r="U11" s="73">
+        <v>1380.0</v>
+      </c>
+      <c r="V11" s="73">
+        <v>2403.0</v>
+      </c>
+      <c r="W11" s="57">
+        <v>2921.0</v>
+      </c>
+      <c r="X11" s="57">
+        <v>4410.0</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>1488.0</v>
+      </c>
+      <c r="Z11" s="57">
+        <v>1299.0</v>
+      </c>
+      <c r="AA11" s="57">
+        <v>4349.0</v>
+      </c>
+      <c r="AB11" s="57">
+        <v>2064.0</v>
+      </c>
+      <c r="AC11" s="57">
+        <v>1655.0</v>
+      </c>
+      <c r="AD11" s="57">
+        <v>2795.0</v>
+      </c>
+      <c r="AE11" s="57">
+        <v>1534.0</v>
+      </c>
+      <c r="AF11" s="57">
+        <v>743.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="73">
+        <v>2998.0</v>
+      </c>
+      <c r="C12" s="73">
+        <v>4619.0</v>
+      </c>
+      <c r="D12" s="73">
+        <v>3902.0</v>
+      </c>
+      <c r="E12" s="73">
+        <v>3814.0</v>
+      </c>
+      <c r="F12" s="73">
+        <v>3634.0</v>
+      </c>
+      <c r="G12" s="73">
+        <v>2104.0</v>
+      </c>
+      <c r="H12" s="73">
+        <v>3791.0</v>
+      </c>
+      <c r="I12" s="73">
+        <v>936.0</v>
+      </c>
+      <c r="J12" s="73">
+        <v>879.0</v>
+      </c>
+      <c r="K12" s="73">
+        <v>1544.0</v>
+      </c>
+      <c r="L12" s="73">
+        <v>1143.0</v>
+      </c>
+      <c r="M12" s="73">
+        <v>874.0</v>
+      </c>
+      <c r="N12" s="73">
+        <v>1079.0</v>
+      </c>
+      <c r="O12" s="73">
+        <v>1504.0</v>
+      </c>
+      <c r="P12" s="73">
+        <v>843.0</v>
+      </c>
+      <c r="Q12" s="73">
+        <v>1202.0</v>
+      </c>
+      <c r="R12" s="73">
+        <v>1513.0</v>
+      </c>
+      <c r="S12" s="73">
+        <v>1112.0</v>
+      </c>
+      <c r="T12" s="73">
+        <v>1197.0</v>
+      </c>
+      <c r="U12" s="73">
+        <v>1224.0</v>
+      </c>
+      <c r="V12" s="73">
+        <v>1367.0</v>
+      </c>
+      <c r="W12" s="57">
+        <v>790.0</v>
+      </c>
+      <c r="X12" s="57">
+        <v>1767.0</v>
+      </c>
+      <c r="Y12" s="57">
+        <v>1290.0</v>
+      </c>
+      <c r="Z12" s="57">
+        <v>838.0</v>
+      </c>
+      <c r="AA12" s="57">
+        <v>1575.0</v>
+      </c>
+      <c r="AB12" s="57">
+        <v>1004.0</v>
+      </c>
+      <c r="AC12" s="57">
+        <v>976.0</v>
+      </c>
+      <c r="AD12" s="57">
+        <v>864.0</v>
+      </c>
+      <c r="AE12" s="57">
+        <v>325.0</v>
+      </c>
+      <c r="AF12" s="57">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="73">
+        <v>12495.0</v>
+      </c>
+      <c r="C13" s="73">
+        <v>12719.0</v>
+      </c>
+      <c r="D13" s="73">
+        <v>11289.0</v>
+      </c>
+      <c r="E13" s="73">
+        <v>10606.0</v>
+      </c>
+      <c r="F13" s="73">
+        <v>17034.0</v>
+      </c>
+      <c r="G13" s="73">
+        <v>7811.0</v>
+      </c>
+      <c r="H13" s="73">
+        <v>16264.0</v>
+      </c>
+      <c r="I13" s="73">
+        <v>6401.0</v>
+      </c>
+      <c r="J13" s="73">
+        <v>4419.0</v>
+      </c>
+      <c r="K13" s="73">
+        <v>7314.0</v>
+      </c>
+      <c r="L13" s="73">
+        <v>5147.0</v>
+      </c>
+      <c r="M13" s="73">
+        <v>4308.0</v>
+      </c>
+      <c r="N13" s="73">
+        <v>3810.0</v>
+      </c>
+      <c r="O13" s="73">
+        <v>6052.0</v>
+      </c>
+      <c r="P13" s="73">
+        <v>4119.0</v>
+      </c>
+      <c r="Q13" s="73">
+        <v>4151.0</v>
+      </c>
+      <c r="R13" s="73">
+        <v>4787.0</v>
+      </c>
+      <c r="S13" s="73">
+        <v>3724.0</v>
+      </c>
+      <c r="T13" s="73">
+        <v>4188.0</v>
+      </c>
+      <c r="U13" s="73">
+        <v>4552.0</v>
+      </c>
+      <c r="V13" s="73">
+        <v>4352.0</v>
+      </c>
+      <c r="W13" s="57">
+        <v>2803.0</v>
+      </c>
+      <c r="X13" s="57">
+        <v>4008.0</v>
+      </c>
+      <c r="Y13" s="57">
+        <v>5232.0</v>
+      </c>
+      <c r="Z13" s="57">
+        <v>2975.0</v>
+      </c>
+      <c r="AA13" s="57">
+        <v>3710.0</v>
+      </c>
+      <c r="AB13" s="57">
+        <v>3171.0</v>
+      </c>
+      <c r="AC13" s="57">
+        <v>3516.0</v>
+      </c>
+      <c r="AD13" s="57">
+        <v>2046.0</v>
+      </c>
+      <c r="AE13" s="57">
+        <v>1097.0</v>
+      </c>
+      <c r="AF13" s="57">
+        <v>556.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="73">
+        <v>19331.0</v>
+      </c>
+      <c r="C14" s="73">
+        <v>16632.0</v>
+      </c>
+      <c r="D14" s="73">
+        <v>22418.0</v>
+      </c>
+      <c r="E14" s="73">
+        <v>15073.0</v>
+      </c>
+      <c r="F14" s="73">
+        <v>25039.0</v>
+      </c>
+      <c r="G14" s="73">
+        <v>9078.0</v>
+      </c>
+      <c r="H14" s="73">
+        <v>18719.0</v>
+      </c>
+      <c r="I14" s="73">
+        <v>9853.0</v>
+      </c>
+      <c r="J14" s="73">
+        <v>4776.0</v>
+      </c>
+      <c r="K14" s="73">
+        <v>6142.0</v>
+      </c>
+      <c r="L14" s="73">
+        <v>6090.0</v>
+      </c>
+      <c r="M14" s="73">
+        <v>4105.0</v>
+      </c>
+      <c r="N14" s="73">
+        <v>3049.0</v>
+      </c>
+      <c r="O14" s="73">
+        <v>4844.0</v>
+      </c>
+      <c r="P14" s="73">
+        <v>4179.0</v>
+      </c>
+      <c r="Q14" s="73">
+        <v>3855.0</v>
+      </c>
+      <c r="R14" s="73">
+        <v>4055.0</v>
+      </c>
+      <c r="S14" s="73">
+        <v>3854.0</v>
+      </c>
+      <c r="T14" s="73">
+        <v>4755.0</v>
+      </c>
+      <c r="U14" s="73">
+        <v>4480.0</v>
+      </c>
+      <c r="V14" s="73">
+        <v>4512.0</v>
+      </c>
+      <c r="W14" s="57">
+        <v>3577.0</v>
+      </c>
+      <c r="X14" s="57">
+        <v>4483.0</v>
+      </c>
+      <c r="Y14" s="57">
+        <v>5179.0</v>
+      </c>
+      <c r="Z14" s="57">
+        <v>3968.0</v>
+      </c>
+      <c r="AA14" s="57">
+        <v>4398.0</v>
+      </c>
+      <c r="AB14" s="57">
+        <v>3735.0</v>
+      </c>
+      <c r="AC14" s="57">
+        <v>3411.0</v>
+      </c>
+      <c r="AD14" s="57">
+        <v>3398.0</v>
+      </c>
+      <c r="AE14" s="57">
+        <v>1378.0</v>
+      </c>
+      <c r="AF14" s="57">
+        <v>601.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="73">
+        <v>5381.0</v>
+      </c>
+      <c r="C15" s="73">
+        <v>5363.0</v>
+      </c>
+      <c r="D15" s="73">
+        <v>4550.0</v>
+      </c>
+      <c r="E15" s="73">
+        <v>3295.0</v>
+      </c>
+      <c r="F15" s="73">
+        <v>4217.0</v>
+      </c>
+      <c r="G15" s="73">
+        <v>1727.0</v>
+      </c>
+      <c r="H15" s="73">
+        <v>3337.0</v>
+      </c>
+      <c r="I15" s="73">
+        <v>2122.0</v>
+      </c>
+      <c r="J15" s="73">
+        <v>1873.0</v>
+      </c>
+      <c r="K15" s="73">
+        <v>1782.0</v>
+      </c>
+      <c r="L15" s="73">
+        <v>1581.0</v>
+      </c>
+      <c r="M15" s="73">
+        <v>1377.0</v>
+      </c>
+      <c r="N15" s="73">
+        <v>1253.0</v>
+      </c>
+      <c r="O15" s="73">
+        <v>1180.0</v>
+      </c>
+      <c r="P15" s="73">
+        <v>1070.0</v>
+      </c>
+      <c r="Q15" s="73">
+        <v>1082.0</v>
+      </c>
+      <c r="R15" s="73">
+        <v>1203.0</v>
+      </c>
+      <c r="S15" s="73">
+        <v>1249.0</v>
+      </c>
+      <c r="T15" s="73">
+        <v>1344.0</v>
+      </c>
+      <c r="U15" s="73">
+        <v>1755.0</v>
+      </c>
+      <c r="V15" s="73">
+        <v>1982.0</v>
+      </c>
+      <c r="W15" s="57">
+        <v>1097.0</v>
+      </c>
+      <c r="X15" s="57">
+        <v>1193.0</v>
+      </c>
+      <c r="Y15" s="57">
+        <v>996.0</v>
+      </c>
+      <c r="Z15" s="57">
+        <v>850.0</v>
+      </c>
+      <c r="AA15" s="57">
+        <v>960.0</v>
+      </c>
+      <c r="AB15" s="57">
+        <v>909.0</v>
+      </c>
+      <c r="AC15" s="57">
+        <v>902.0</v>
+      </c>
+      <c r="AD15" s="57">
+        <v>701.0</v>
+      </c>
+      <c r="AE15" s="57">
+        <v>197.0</v>
+      </c>
+      <c r="AF15" s="57">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="73">
+        <v>9048.0</v>
+      </c>
+      <c r="C16" s="73">
+        <v>9371.0</v>
+      </c>
+      <c r="D16" s="73">
+        <v>10790.0</v>
+      </c>
+      <c r="E16" s="73">
+        <v>10628.0</v>
+      </c>
+      <c r="F16" s="73">
+        <v>25218.0</v>
+      </c>
+      <c r="G16" s="73">
+        <v>13331.0</v>
+      </c>
+      <c r="H16" s="73">
+        <v>20761.0</v>
+      </c>
+      <c r="I16" s="73">
+        <v>10007.0</v>
+      </c>
+      <c r="J16" s="73">
+        <v>3732.0</v>
+      </c>
+      <c r="K16" s="73">
+        <v>10647.0</v>
+      </c>
+      <c r="L16" s="73">
+        <v>5933.0</v>
+      </c>
+      <c r="M16" s="73">
+        <v>3624.0</v>
+      </c>
+      <c r="N16" s="73">
+        <v>3491.0</v>
+      </c>
+      <c r="O16" s="73">
+        <v>5118.0</v>
+      </c>
+      <c r="P16" s="73">
+        <v>3599.0</v>
+      </c>
+      <c r="Q16" s="73">
+        <v>2465.0</v>
+      </c>
+      <c r="R16" s="73">
+        <v>2901.0</v>
+      </c>
+      <c r="S16" s="73">
+        <v>2016.0</v>
+      </c>
+      <c r="T16" s="73">
+        <v>2279.0</v>
+      </c>
+      <c r="U16" s="73">
+        <v>2309.0</v>
+      </c>
+      <c r="V16" s="73">
+        <v>2469.0</v>
+      </c>
+      <c r="W16" s="57">
+        <v>1944.0</v>
+      </c>
+      <c r="X16" s="57">
+        <v>3698.0</v>
+      </c>
+      <c r="Y16" s="57">
+        <v>4116.0</v>
+      </c>
+      <c r="Z16" s="57">
+        <v>1670.0</v>
+      </c>
+      <c r="AA16" s="57">
+        <v>3221.0</v>
+      </c>
+      <c r="AB16" s="57">
+        <v>3175.0</v>
+      </c>
+      <c r="AC16" s="57">
+        <v>2376.0</v>
+      </c>
+      <c r="AD16" s="57">
+        <v>1562.0</v>
+      </c>
+      <c r="AE16" s="57">
+        <v>819.0</v>
+      </c>
+      <c r="AF16" s="57">
+        <v>742.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -39562,177 +42750,132 @@
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>503</v>
+      <c r="B1" s="37">
+        <v>2009.0</v>
+      </c>
+      <c r="C1" s="37">
+        <v>2010.0</v>
+      </c>
+      <c r="D1" s="37">
+        <v>2011.0</v>
+      </c>
+      <c r="E1" s="37">
+        <v>2012.0</v>
+      </c>
+      <c r="F1" s="37">
+        <v>2013.0</v>
+      </c>
+      <c r="G1" s="37">
+        <v>2014.0</v>
+      </c>
+      <c r="H1" s="37">
+        <v>2015.0</v>
+      </c>
+      <c r="I1" s="37">
+        <v>2016.0</v>
+      </c>
+      <c r="J1" s="37">
+        <v>2017.0</v>
+      </c>
+      <c r="K1" s="37">
+        <v>2018.0</v>
+      </c>
+      <c r="L1" s="37">
+        <v>2019.0</v>
+      </c>
+      <c r="M1" s="37">
+        <v>2020.0</v>
+      </c>
+      <c r="N1" s="37">
+        <v>2021.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="41">
-        <v>3.5271296E7</v>
-      </c>
-      <c r="C2" s="41">
-        <v>2504362.0</v>
-      </c>
-      <c r="D2" s="41">
-        <v>2139728.0</v>
-      </c>
-      <c r="E2" s="41">
-        <v>1422574.0</v>
-      </c>
-      <c r="F2" s="41">
-        <v>4999115.0</v>
-      </c>
-      <c r="G2" s="41">
-        <v>1052812.0</v>
-      </c>
-      <c r="H2" s="41">
-        <v>1016127.0</v>
-      </c>
-      <c r="I2" s="41">
-        <v>2644952.0</v>
-      </c>
-      <c r="J2" s="41">
-        <v>3156976.0</v>
-      </c>
-      <c r="K2" s="41">
-        <v>3130619.0</v>
-      </c>
-      <c r="L2" s="41">
-        <v>2747566.0</v>
-      </c>
-      <c r="M2" s="41">
-        <v>4154082.0</v>
-      </c>
-      <c r="N2" s="41">
-        <v>3198960.0</v>
-      </c>
-      <c r="O2" s="41">
-        <v>2118734.0</v>
-      </c>
-      <c r="P2" s="41">
-        <v>503142.0</v>
-      </c>
-      <c r="Q2" s="41">
-        <v>247275.0</v>
-      </c>
-      <c r="R2" s="41">
-        <v>161300.0</v>
-      </c>
-      <c r="S2" s="42">
-        <v>72972.0</v>
+      <c r="B2" s="39">
+        <v>23.4</v>
+      </c>
+      <c r="C2" s="39">
+        <v>22.0</v>
+      </c>
+      <c r="D2" s="39">
+        <v>21.2</v>
+      </c>
+      <c r="E2" s="39">
+        <v>21.0</v>
+      </c>
+      <c r="F2" s="39">
+        <v>22.5</v>
+      </c>
+      <c r="G2" s="39">
+        <v>23.3</v>
+      </c>
+      <c r="H2" s="39">
+        <v>23.5</v>
+      </c>
+      <c r="I2" s="39">
+        <v>22.8</v>
+      </c>
+      <c r="J2" s="39">
+        <v>22.1</v>
+      </c>
+      <c r="K2" s="39">
+        <v>23.3</v>
+      </c>
+      <c r="L2" s="39">
+        <v>24.3</v>
+      </c>
+      <c r="M2" s="39">
+        <v>24.6</v>
+      </c>
+      <c r="N2" s="39">
+        <v>25.9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="41">
-        <v>1948488.0</v>
-      </c>
-      <c r="C3" s="44">
-        <v>117222.0</v>
-      </c>
-      <c r="D3" s="44">
-        <v>111480.0</v>
-      </c>
-      <c r="E3" s="44">
-        <v>79774.0</v>
-      </c>
-      <c r="F3" s="44">
-        <v>291148.0</v>
-      </c>
-      <c r="G3" s="44">
-        <v>62487.0</v>
-      </c>
-      <c r="H3" s="44">
-        <v>60087.0</v>
-      </c>
-      <c r="I3" s="44">
-        <v>156696.0</v>
-      </c>
-      <c r="J3" s="44">
-        <v>162842.0</v>
-      </c>
-      <c r="K3" s="44">
-        <v>183468.0</v>
-      </c>
-      <c r="L3" s="44">
-        <v>160468.0</v>
-      </c>
-      <c r="M3" s="44">
-        <v>238689.0</v>
-      </c>
-      <c r="N3" s="44">
-        <v>172184.0</v>
-      </c>
-      <c r="O3" s="44">
-        <v>104236.0</v>
-      </c>
-      <c r="P3" s="44">
-        <v>25490.0</v>
-      </c>
-      <c r="Q3" s="44">
-        <v>12619.0</v>
-      </c>
-      <c r="R3" s="44">
-        <v>7011.0</v>
-      </c>
-      <c r="S3" s="45">
-        <v>2587.0</v>
+        <v>24.7</v>
+      </c>
+      <c r="C3" s="41">
+        <v>22.7</v>
+      </c>
+      <c r="D3" s="41">
+        <v>21.2</v>
+      </c>
+      <c r="E3" s="41">
+        <v>22.4</v>
+      </c>
+      <c r="F3" s="41">
+        <v>22.7</v>
+      </c>
+      <c r="G3" s="41">
+        <v>23.4</v>
+      </c>
+      <c r="H3" s="41">
+        <v>23.3</v>
+      </c>
+      <c r="I3" s="41">
+        <v>21.9</v>
+      </c>
+      <c r="J3" s="41">
+        <v>20.6</v>
+      </c>
+      <c r="K3" s="41">
+        <v>21.6</v>
+      </c>
+      <c r="L3" s="41">
+        <v>21.8</v>
+      </c>
+      <c r="M3" s="41">
+        <v>20.6</v>
+      </c>
+      <c r="N3" s="41">
+        <v>20.8</v>
       </c>
     </row>
     <row r="4">
@@ -39740,58 +42883,43 @@
         <v>28</v>
       </c>
       <c r="B4" s="41">
-        <v>3253528.0</v>
-      </c>
-      <c r="C4" s="44">
-        <v>238114.0</v>
-      </c>
-      <c r="D4" s="44">
-        <v>201171.0</v>
-      </c>
-      <c r="E4" s="44">
-        <v>133937.0</v>
-      </c>
-      <c r="F4" s="44">
-        <v>463779.0</v>
-      </c>
-      <c r="G4" s="44">
-        <v>92860.0</v>
-      </c>
-      <c r="H4" s="44">
-        <v>88141.0</v>
-      </c>
-      <c r="I4" s="44">
-        <v>234552.0</v>
-      </c>
-      <c r="J4" s="44">
-        <v>292738.0</v>
-      </c>
-      <c r="K4" s="44">
-        <v>278674.0</v>
-      </c>
-      <c r="L4" s="44">
-        <v>245158.0</v>
-      </c>
-      <c r="M4" s="44">
-        <v>390260.0</v>
-      </c>
-      <c r="N4" s="44">
-        <v>313485.0</v>
-      </c>
-      <c r="O4" s="44">
-        <v>195797.0</v>
-      </c>
-      <c r="P4" s="44">
-        <v>43251.0</v>
-      </c>
-      <c r="Q4" s="44">
-        <v>21204.0</v>
-      </c>
-      <c r="R4" s="44">
-        <v>14687.0</v>
-      </c>
-      <c r="S4" s="45">
-        <v>5720.0</v>
+        <v>24.5</v>
+      </c>
+      <c r="C4" s="41">
+        <v>22.6</v>
+      </c>
+      <c r="D4" s="41">
+        <v>21.0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>21.3</v>
+      </c>
+      <c r="F4" s="41">
+        <v>23.1</v>
+      </c>
+      <c r="G4" s="41">
+        <v>24.0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>24.1</v>
+      </c>
+      <c r="I4" s="41">
+        <v>23.4</v>
+      </c>
+      <c r="J4" s="41">
+        <v>22.6</v>
+      </c>
+      <c r="K4" s="41">
+        <v>23.8</v>
+      </c>
+      <c r="L4" s="41">
+        <v>25.1</v>
+      </c>
+      <c r="M4" s="41">
+        <v>25.8</v>
+      </c>
+      <c r="N4" s="41">
+        <v>26.3</v>
       </c>
     </row>
     <row r="5">
@@ -39799,58 +42927,43 @@
         <v>35</v>
       </c>
       <c r="B5" s="41">
-        <v>1976823.0</v>
-      </c>
-      <c r="C5" s="44">
-        <v>123964.0</v>
-      </c>
-      <c r="D5" s="44">
-        <v>112574.0</v>
-      </c>
-      <c r="E5" s="44">
-        <v>75165.0</v>
-      </c>
-      <c r="F5" s="44">
-        <v>263020.0</v>
-      </c>
-      <c r="G5" s="44">
-        <v>57621.0</v>
-      </c>
-      <c r="H5" s="44">
-        <v>55586.0</v>
-      </c>
-      <c r="I5" s="44">
-        <v>142076.0</v>
-      </c>
-      <c r="J5" s="44">
-        <v>171638.0</v>
-      </c>
-      <c r="K5" s="44">
-        <v>176292.0</v>
-      </c>
-      <c r="L5" s="44">
-        <v>156292.0</v>
-      </c>
-      <c r="M5" s="44">
-        <v>247944.0</v>
-      </c>
-      <c r="N5" s="44">
-        <v>202541.0</v>
-      </c>
-      <c r="O5" s="44">
-        <v>132422.0</v>
-      </c>
-      <c r="P5" s="44">
-        <v>30038.0</v>
-      </c>
-      <c r="Q5" s="44">
-        <v>14963.0</v>
-      </c>
-      <c r="R5" s="44">
-        <v>10949.0</v>
-      </c>
-      <c r="S5" s="45">
-        <v>3738.0</v>
+        <v>21.7</v>
+      </c>
+      <c r="C5" s="41">
+        <v>20.7</v>
+      </c>
+      <c r="D5" s="41">
+        <v>19.4</v>
+      </c>
+      <c r="E5" s="41">
+        <v>19.9</v>
+      </c>
+      <c r="F5" s="41">
+        <v>21.1</v>
+      </c>
+      <c r="G5" s="41">
+        <v>21.6</v>
+      </c>
+      <c r="H5" s="41">
+        <v>21.9</v>
+      </c>
+      <c r="I5" s="41">
+        <v>20.9</v>
+      </c>
+      <c r="J5" s="41">
+        <v>20.0</v>
+      </c>
+      <c r="K5" s="41">
+        <v>21.4</v>
+      </c>
+      <c r="L5" s="41">
+        <v>21.5</v>
+      </c>
+      <c r="M5" s="41">
+        <v>21.5</v>
+      </c>
+      <c r="N5" s="41">
+        <v>22.0</v>
       </c>
     </row>
     <row r="6">
@@ -39858,58 +42971,43 @@
         <v>50</v>
       </c>
       <c r="B6" s="41">
-        <v>1443408.0</v>
-      </c>
-      <c r="C6" s="44">
-        <v>113035.0</v>
-      </c>
-      <c r="D6" s="44">
-        <v>92136.0</v>
-      </c>
-      <c r="E6" s="44">
-        <v>60155.0</v>
-      </c>
-      <c r="F6" s="44">
-        <v>207401.0</v>
-      </c>
-      <c r="G6" s="44">
-        <v>46864.0</v>
-      </c>
-      <c r="H6" s="44">
-        <v>44582.0</v>
-      </c>
-      <c r="I6" s="44">
-        <v>114973.0</v>
-      </c>
-      <c r="J6" s="44">
-        <v>137392.0</v>
-      </c>
-      <c r="K6" s="44">
-        <v>133136.0</v>
-      </c>
-      <c r="L6" s="44">
-        <v>106794.0</v>
-      </c>
-      <c r="M6" s="44">
-        <v>152352.0</v>
-      </c>
-      <c r="N6" s="44">
-        <v>114487.0</v>
-      </c>
-      <c r="O6" s="44">
-        <v>80089.0</v>
-      </c>
-      <c r="P6" s="44">
-        <v>20594.0</v>
-      </c>
-      <c r="Q6" s="44">
-        <v>11153.0</v>
-      </c>
-      <c r="R6" s="44">
-        <v>5799.0</v>
-      </c>
-      <c r="S6" s="45">
-        <v>2466.0</v>
+        <v>24.1</v>
+      </c>
+      <c r="C6" s="41">
+        <v>22.4</v>
+      </c>
+      <c r="D6" s="41">
+        <v>21.4</v>
+      </c>
+      <c r="E6" s="41">
+        <v>21.2</v>
+      </c>
+      <c r="F6" s="41">
+        <v>22.6</v>
+      </c>
+      <c r="G6" s="41">
+        <v>24.2</v>
+      </c>
+      <c r="H6" s="41">
+        <v>25.2</v>
+      </c>
+      <c r="I6" s="41">
+        <v>24.5</v>
+      </c>
+      <c r="J6" s="41">
+        <v>23.6</v>
+      </c>
+      <c r="K6" s="41">
+        <v>25.2</v>
+      </c>
+      <c r="L6" s="41">
+        <v>26.7</v>
+      </c>
+      <c r="M6" s="41">
+        <v>27.3</v>
+      </c>
+      <c r="N6" s="41">
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
@@ -39917,58 +43015,43 @@
         <v>65</v>
       </c>
       <c r="B7" s="41">
-        <v>3408345.0</v>
-      </c>
-      <c r="C7" s="44">
-        <v>264976.0</v>
-      </c>
-      <c r="D7" s="44">
-        <v>225409.0</v>
-      </c>
-      <c r="E7" s="44">
-        <v>148481.0</v>
-      </c>
-      <c r="F7" s="44">
-        <v>503897.0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>104310.0</v>
-      </c>
-      <c r="H7" s="44">
-        <v>105567.0</v>
-      </c>
-      <c r="I7" s="44">
-        <v>277038.0</v>
-      </c>
-      <c r="J7" s="44">
-        <v>318763.0</v>
-      </c>
-      <c r="K7" s="44">
-        <v>307699.0</v>
-      </c>
-      <c r="L7" s="44">
-        <v>261218.0</v>
-      </c>
-      <c r="M7" s="44">
-        <v>367444.0</v>
-      </c>
-      <c r="N7" s="44">
-        <v>267863.0</v>
-      </c>
-      <c r="O7" s="44">
-        <v>179209.0</v>
-      </c>
-      <c r="P7" s="44">
-        <v>38091.0</v>
-      </c>
-      <c r="Q7" s="44">
-        <v>18474.0</v>
-      </c>
-      <c r="R7" s="44">
-        <v>12379.0</v>
-      </c>
-      <c r="S7" s="45">
-        <v>7527.0</v>
+        <v>24.4</v>
+      </c>
+      <c r="C7" s="41">
+        <v>23.7</v>
+      </c>
+      <c r="D7" s="41">
+        <v>23.3</v>
+      </c>
+      <c r="E7" s="41">
+        <v>23.3</v>
+      </c>
+      <c r="F7" s="41">
+        <v>25.1</v>
+      </c>
+      <c r="G7" s="41">
+        <v>25.8</v>
+      </c>
+      <c r="H7" s="41">
+        <v>26.2</v>
+      </c>
+      <c r="I7" s="41">
+        <v>25.4</v>
+      </c>
+      <c r="J7" s="41">
+        <v>24.6</v>
+      </c>
+      <c r="K7" s="41">
+        <v>25.8</v>
+      </c>
+      <c r="L7" s="41">
+        <v>26.7</v>
+      </c>
+      <c r="M7" s="41">
+        <v>27.3</v>
+      </c>
+      <c r="N7" s="41">
+        <v>28.8</v>
       </c>
     </row>
     <row r="8">
@@ -39976,58 +43059,43 @@
         <v>80</v>
       </c>
       <c r="B8" s="41">
-        <v>1033857.0</v>
-      </c>
-      <c r="C8" s="44">
-        <v>71899.0</v>
-      </c>
-      <c r="D8" s="44">
-        <v>61901.0</v>
-      </c>
-      <c r="E8" s="44">
-        <v>40088.0</v>
-      </c>
-      <c r="F8" s="44">
-        <v>140881.0</v>
-      </c>
-      <c r="G8" s="44">
-        <v>30398.0</v>
-      </c>
-      <c r="H8" s="44">
-        <v>28581.0</v>
-      </c>
-      <c r="I8" s="44">
-        <v>72501.0</v>
-      </c>
-      <c r="J8" s="44">
-        <v>93167.0</v>
-      </c>
-      <c r="K8" s="44">
-        <v>93910.0</v>
-      </c>
-      <c r="L8" s="44">
-        <v>84228.0</v>
-      </c>
-      <c r="M8" s="44">
-        <v>126289.0</v>
-      </c>
-      <c r="N8" s="44">
-        <v>97846.0</v>
-      </c>
-      <c r="O8" s="44">
-        <v>64329.0</v>
-      </c>
-      <c r="P8" s="44">
-        <v>14602.0</v>
-      </c>
-      <c r="Q8" s="44">
-        <v>6594.0</v>
-      </c>
-      <c r="R8" s="44">
-        <v>4566.0</v>
-      </c>
-      <c r="S8" s="45">
-        <v>2077.0</v>
+        <v>21.6</v>
+      </c>
+      <c r="C8" s="41">
+        <v>21.2</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20.6</v>
+      </c>
+      <c r="E8" s="41">
+        <v>20.4</v>
+      </c>
+      <c r="F8" s="41">
+        <v>21.6</v>
+      </c>
+      <c r="G8" s="41">
+        <v>22.2</v>
+      </c>
+      <c r="H8" s="41">
+        <v>22.0</v>
+      </c>
+      <c r="I8" s="41">
+        <v>22.3</v>
+      </c>
+      <c r="J8" s="41">
+        <v>21.6</v>
+      </c>
+      <c r="K8" s="41">
+        <v>22.2</v>
+      </c>
+      <c r="L8" s="41">
+        <v>23.0</v>
+      </c>
+      <c r="M8" s="41">
+        <v>23.8</v>
+      </c>
+      <c r="N8" s="41">
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
@@ -40035,58 +43103,43 @@
         <v>88</v>
       </c>
       <c r="B9" s="41">
-        <v>2931056.0</v>
-      </c>
-      <c r="C9" s="44">
-        <v>223426.0</v>
-      </c>
-      <c r="D9" s="44">
-        <v>185889.0</v>
-      </c>
-      <c r="E9" s="44">
-        <v>121475.0</v>
-      </c>
-      <c r="F9" s="44">
-        <v>405334.0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>84259.0</v>
-      </c>
-      <c r="H9" s="44">
-        <v>82909.0</v>
-      </c>
-      <c r="I9" s="44">
-        <v>214235.0</v>
-      </c>
-      <c r="J9" s="44">
-        <v>276056.0</v>
-      </c>
-      <c r="K9" s="44">
-        <v>262150.0</v>
-      </c>
-      <c r="L9" s="44">
-        <v>222193.0</v>
-      </c>
-      <c r="M9" s="44">
-        <v>350440.0</v>
-      </c>
-      <c r="N9" s="44">
-        <v>263411.0</v>
-      </c>
-      <c r="O9" s="44">
-        <v>166571.0</v>
-      </c>
-      <c r="P9" s="44">
-        <v>36993.0</v>
-      </c>
-      <c r="Q9" s="44">
-        <v>18272.0</v>
-      </c>
-      <c r="R9" s="44">
-        <v>11947.0</v>
-      </c>
-      <c r="S9" s="45">
-        <v>5496.0</v>
+        <v>22.9</v>
+      </c>
+      <c r="C9" s="41">
+        <v>21.5</v>
+      </c>
+      <c r="D9" s="41">
+        <v>21.8</v>
+      </c>
+      <c r="E9" s="41">
+        <v>20.7</v>
+      </c>
+      <c r="F9" s="41">
+        <v>22.9</v>
+      </c>
+      <c r="G9" s="41">
+        <v>24.6</v>
+      </c>
+      <c r="H9" s="41">
+        <v>24.0</v>
+      </c>
+      <c r="I9" s="41">
+        <v>23.7</v>
+      </c>
+      <c r="J9" s="41">
+        <v>22.9</v>
+      </c>
+      <c r="K9" s="41">
+        <v>24.4</v>
+      </c>
+      <c r="L9" s="41">
+        <v>25.8</v>
+      </c>
+      <c r="M9" s="41">
+        <v>26.3</v>
+      </c>
+      <c r="N9" s="41">
+        <v>27.6</v>
       </c>
     </row>
     <row r="10">
@@ -40094,58 +43147,43 @@
         <v>99</v>
       </c>
       <c r="B10" s="41">
-        <v>4031324.0</v>
-      </c>
-      <c r="C10" s="44">
-        <v>300814.0</v>
-      </c>
-      <c r="D10" s="44">
-        <v>261407.0</v>
-      </c>
-      <c r="E10" s="44">
-        <v>172052.0</v>
-      </c>
-      <c r="F10" s="44">
-        <v>601212.0</v>
-      </c>
-      <c r="G10" s="44">
-        <v>124538.0</v>
-      </c>
-      <c r="H10" s="44">
-        <v>121010.0</v>
-      </c>
-      <c r="I10" s="44">
-        <v>311250.0</v>
-      </c>
-      <c r="J10" s="44">
-        <v>373731.0</v>
-      </c>
-      <c r="K10" s="44">
-        <v>356486.0</v>
-      </c>
-      <c r="L10" s="44">
-        <v>306309.0</v>
-      </c>
-      <c r="M10" s="44">
-        <v>434269.0</v>
-      </c>
-      <c r="N10" s="44">
-        <v>332110.0</v>
-      </c>
-      <c r="O10" s="44">
-        <v>234049.0</v>
-      </c>
-      <c r="P10" s="44">
-        <v>53717.0</v>
-      </c>
-      <c r="Q10" s="44">
-        <v>26604.0</v>
-      </c>
-      <c r="R10" s="44">
-        <v>15316.0</v>
-      </c>
-      <c r="S10" s="45">
-        <v>6450.0</v>
+        <v>24.2</v>
+      </c>
+      <c r="C10" s="41">
+        <v>23.2</v>
+      </c>
+      <c r="D10" s="41">
+        <v>22.4</v>
+      </c>
+      <c r="E10" s="41">
+        <v>22.1</v>
+      </c>
+      <c r="F10" s="41">
+        <v>24.1</v>
+      </c>
+      <c r="G10" s="41">
+        <v>25.2</v>
+      </c>
+      <c r="H10" s="41">
+        <v>25.0</v>
+      </c>
+      <c r="I10" s="41">
+        <v>24.4</v>
+      </c>
+      <c r="J10" s="41">
+        <v>24.4</v>
+      </c>
+      <c r="K10" s="41">
+        <v>26.3</v>
+      </c>
+      <c r="L10" s="41">
+        <v>26.2</v>
+      </c>
+      <c r="M10" s="41">
+        <v>25.9</v>
+      </c>
+      <c r="N10" s="41">
+        <v>27.7</v>
       </c>
     </row>
     <row r="11">
@@ -40153,58 +43191,43 @@
         <v>106</v>
       </c>
       <c r="B11" s="41">
-        <v>2743201.0</v>
-      </c>
-      <c r="C11" s="44">
-        <v>220361.0</v>
-      </c>
-      <c r="D11" s="44">
-        <v>186589.0</v>
-      </c>
-      <c r="E11" s="44">
-        <v>121793.0</v>
-      </c>
-      <c r="F11" s="44">
-        <v>407306.0</v>
-      </c>
-      <c r="G11" s="44">
-        <v>82266.0</v>
-      </c>
-      <c r="H11" s="44">
-        <v>84080.0</v>
-      </c>
-      <c r="I11" s="44">
-        <v>223816.0</v>
-      </c>
-      <c r="J11" s="44">
-        <v>259175.0</v>
-      </c>
-      <c r="K11" s="44">
-        <v>245696.0</v>
-      </c>
-      <c r="L11" s="44">
-        <v>205810.0</v>
-      </c>
-      <c r="M11" s="44">
-        <v>293168.0</v>
-      </c>
-      <c r="N11" s="44">
-        <v>219107.0</v>
-      </c>
-      <c r="O11" s="44">
-        <v>135256.0</v>
-      </c>
-      <c r="P11" s="44">
-        <v>29014.0</v>
-      </c>
-      <c r="Q11" s="44">
-        <v>14060.0</v>
-      </c>
-      <c r="R11" s="44">
-        <v>9424.0</v>
-      </c>
-      <c r="S11" s="45">
-        <v>6280.0</v>
+        <v>24.9</v>
+      </c>
+      <c r="C11" s="41">
+        <v>23.7</v>
+      </c>
+      <c r="D11" s="41">
+        <v>24.6</v>
+      </c>
+      <c r="E11" s="41">
+        <v>23.4</v>
+      </c>
+      <c r="F11" s="41">
+        <v>24.7</v>
+      </c>
+      <c r="G11" s="41">
+        <v>26.0</v>
+      </c>
+      <c r="H11" s="41">
+        <v>27.0</v>
+      </c>
+      <c r="I11" s="41">
+        <v>25.7</v>
+      </c>
+      <c r="J11" s="41">
+        <v>26.1</v>
+      </c>
+      <c r="K11" s="41">
+        <v>26.9</v>
+      </c>
+      <c r="L11" s="41">
+        <v>28.0</v>
+      </c>
+      <c r="M11" s="41">
+        <v>28.1</v>
+      </c>
+      <c r="N11" s="41">
+        <v>29.9</v>
       </c>
     </row>
     <row r="12">
@@ -40212,58 +43235,43 @@
         <v>113</v>
       </c>
       <c r="B12" s="41">
-        <v>878591.0</v>
-      </c>
-      <c r="C12" s="44">
-        <v>63752.0</v>
-      </c>
-      <c r="D12" s="44">
-        <v>51452.0</v>
-      </c>
-      <c r="E12" s="44">
-        <v>34248.0</v>
-      </c>
-      <c r="F12" s="44">
-        <v>126856.0</v>
-      </c>
-      <c r="G12" s="44">
-        <v>27327.0</v>
-      </c>
-      <c r="H12" s="44">
-        <v>27349.0</v>
-      </c>
-      <c r="I12" s="44">
-        <v>68344.0</v>
-      </c>
-      <c r="J12" s="44">
-        <v>80120.0</v>
-      </c>
-      <c r="K12" s="44">
-        <v>87757.0</v>
-      </c>
-      <c r="L12" s="44">
-        <v>76226.0</v>
-      </c>
-      <c r="M12" s="44">
-        <v>100881.0</v>
-      </c>
-      <c r="N12" s="44">
-        <v>71007.0</v>
-      </c>
-      <c r="O12" s="44">
-        <v>47751.0</v>
-      </c>
-      <c r="P12" s="44">
-        <v>8496.0</v>
-      </c>
-      <c r="Q12" s="44">
-        <v>3147.0</v>
-      </c>
-      <c r="R12" s="44">
-        <v>2318.0</v>
-      </c>
-      <c r="S12" s="45">
-        <v>1560.0</v>
+        <v>23.6</v>
+      </c>
+      <c r="C12" s="41">
+        <v>22.5</v>
+      </c>
+      <c r="D12" s="41">
+        <v>21.2</v>
+      </c>
+      <c r="E12" s="41">
+        <v>21.1</v>
+      </c>
+      <c r="F12" s="41">
+        <v>22.1</v>
+      </c>
+      <c r="G12" s="41">
+        <v>22.6</v>
+      </c>
+      <c r="H12" s="41">
+        <v>22.8</v>
+      </c>
+      <c r="I12" s="41">
+        <v>22.1</v>
+      </c>
+      <c r="J12" s="41">
+        <v>21.8</v>
+      </c>
+      <c r="K12" s="41">
+        <v>22.3</v>
+      </c>
+      <c r="L12" s="41">
+        <v>24.8</v>
+      </c>
+      <c r="M12" s="41">
+        <v>24.7</v>
+      </c>
+      <c r="N12" s="41">
+        <v>26.7</v>
       </c>
     </row>
     <row r="13">
@@ -40271,58 +43279,43 @@
         <v>122</v>
       </c>
       <c r="B13" s="41">
-        <v>2939697.0</v>
-      </c>
-      <c r="C13" s="44">
-        <v>191691.0</v>
-      </c>
-      <c r="D13" s="44">
-        <v>158828.0</v>
-      </c>
-      <c r="E13" s="44">
-        <v>109212.0</v>
-      </c>
-      <c r="F13" s="44">
-        <v>406218.0</v>
-      </c>
-      <c r="G13" s="44">
-        <v>86344.0</v>
-      </c>
-      <c r="H13" s="44">
-        <v>80450.0</v>
-      </c>
-      <c r="I13" s="44">
-        <v>207787.0</v>
-      </c>
-      <c r="J13" s="44">
-        <v>248390.0</v>
-      </c>
-      <c r="K13" s="44">
-        <v>267691.0</v>
-      </c>
-      <c r="L13" s="44">
-        <v>237199.0</v>
-      </c>
-      <c r="M13" s="44">
-        <v>348747.0</v>
-      </c>
-      <c r="N13" s="44">
-        <v>291342.0</v>
-      </c>
-      <c r="O13" s="44">
-        <v>206442.0</v>
-      </c>
-      <c r="P13" s="44">
-        <v>51574.0</v>
-      </c>
-      <c r="Q13" s="44">
-        <v>24521.0</v>
-      </c>
-      <c r="R13" s="44">
-        <v>16557.0</v>
-      </c>
-      <c r="S13" s="45">
-        <v>6704.0</v>
+        <v>22.7</v>
+      </c>
+      <c r="C13" s="41">
+        <v>20.8</v>
+      </c>
+      <c r="D13" s="41">
+        <v>20.1</v>
+      </c>
+      <c r="E13" s="41">
+        <v>19.7</v>
+      </c>
+      <c r="F13" s="41">
+        <v>20.3</v>
+      </c>
+      <c r="G13" s="41">
+        <v>21.1</v>
+      </c>
+      <c r="H13" s="41">
+        <v>21.1</v>
+      </c>
+      <c r="I13" s="41">
+        <v>20.3</v>
+      </c>
+      <c r="J13" s="41">
+        <v>19.3</v>
+      </c>
+      <c r="K13" s="41">
+        <v>20.6</v>
+      </c>
+      <c r="L13" s="41">
+        <v>21.9</v>
+      </c>
+      <c r="M13" s="41">
+        <v>22.4</v>
+      </c>
+      <c r="N13" s="41">
+        <v>24.9</v>
       </c>
     </row>
     <row r="14">
@@ -40330,58 +43323,43 @@
         <v>129</v>
       </c>
       <c r="B14" s="41">
-        <v>3896395.0</v>
-      </c>
-      <c r="C14" s="44">
-        <v>276703.0</v>
-      </c>
-      <c r="D14" s="44">
-        <v>230616.0</v>
-      </c>
-      <c r="E14" s="44">
-        <v>152869.0</v>
-      </c>
-      <c r="F14" s="44">
-        <v>537640.0</v>
-      </c>
-      <c r="G14" s="44">
-        <v>113986.0</v>
-      </c>
-      <c r="H14" s="44">
-        <v>106163.0</v>
-      </c>
-      <c r="I14" s="44">
-        <v>280022.0</v>
-      </c>
-      <c r="J14" s="44">
-        <v>359429.0</v>
-      </c>
-      <c r="K14" s="44">
-        <v>338091.0</v>
-      </c>
-      <c r="L14" s="44">
-        <v>290226.0</v>
-      </c>
-      <c r="M14" s="44">
-        <v>473408.0</v>
-      </c>
-      <c r="N14" s="44">
-        <v>377034.0</v>
-      </c>
-      <c r="O14" s="44">
-        <v>244524.0</v>
-      </c>
-      <c r="P14" s="44">
-        <v>57247.0</v>
-      </c>
-      <c r="Q14" s="44">
-        <v>29416.0</v>
-      </c>
-      <c r="R14" s="44">
-        <v>19657.0</v>
-      </c>
-      <c r="S14" s="45">
-        <v>9364.0</v>
+        <v>22.6</v>
+      </c>
+      <c r="C14" s="41">
+        <v>22.1</v>
+      </c>
+      <c r="D14" s="41">
+        <v>20.8</v>
+      </c>
+      <c r="E14" s="41">
+        <v>20.3</v>
+      </c>
+      <c r="F14" s="41">
+        <v>21.9</v>
+      </c>
+      <c r="G14" s="41">
+        <v>22.5</v>
+      </c>
+      <c r="H14" s="41">
+        <v>22.8</v>
+      </c>
+      <c r="I14" s="41">
+        <v>22.2</v>
+      </c>
+      <c r="J14" s="41">
+        <v>21.0</v>
+      </c>
+      <c r="K14" s="41">
+        <v>22.3</v>
+      </c>
+      <c r="L14" s="41">
+        <v>23.6</v>
+      </c>
+      <c r="M14" s="41">
+        <v>24.6</v>
+      </c>
+      <c r="N14" s="41">
+        <v>25.7</v>
       </c>
     </row>
     <row r="15">
@@ -40389,117 +43367,87 @@
         <v>134</v>
       </c>
       <c r="B15" s="41">
-        <v>1924163.0</v>
-      </c>
-      <c r="C15" s="44">
-        <v>123632.0</v>
-      </c>
-      <c r="D15" s="44">
-        <v>113742.0</v>
-      </c>
-      <c r="E15" s="44">
-        <v>77732.0</v>
-      </c>
-      <c r="F15" s="44">
-        <v>280688.0</v>
-      </c>
-      <c r="G15" s="44">
-        <v>60954.0</v>
-      </c>
-      <c r="H15" s="44">
-        <v>57841.0</v>
-      </c>
-      <c r="I15" s="44">
-        <v>151990.0</v>
-      </c>
-      <c r="J15" s="44">
-        <v>170012.0</v>
-      </c>
-      <c r="K15" s="44">
-        <v>168378.0</v>
-      </c>
-      <c r="L15" s="44">
-        <v>156733.0</v>
-      </c>
-      <c r="M15" s="44">
-        <v>248024.0</v>
-      </c>
-      <c r="N15" s="44">
-        <v>166535.0</v>
-      </c>
-      <c r="O15" s="44">
-        <v>103014.0</v>
-      </c>
-      <c r="P15" s="44">
-        <v>23303.0</v>
-      </c>
-      <c r="Q15" s="44">
-        <v>9831.0</v>
-      </c>
-      <c r="R15" s="44">
-        <v>7887.0</v>
-      </c>
-      <c r="S15" s="45">
-        <v>3867.0</v>
+        <v>25.4</v>
+      </c>
+      <c r="C15" s="41">
+        <v>22.7</v>
+      </c>
+      <c r="D15" s="41">
+        <v>21.7</v>
+      </c>
+      <c r="E15" s="41">
+        <v>21.2</v>
+      </c>
+      <c r="F15" s="41">
+        <v>22.7</v>
+      </c>
+      <c r="G15" s="41">
+        <v>23.7</v>
+      </c>
+      <c r="H15" s="41">
+        <v>22.8</v>
+      </c>
+      <c r="I15" s="41">
+        <v>22.2</v>
+      </c>
+      <c r="J15" s="41">
+        <v>21.0</v>
+      </c>
+      <c r="K15" s="41">
+        <v>22.0</v>
+      </c>
+      <c r="L15" s="41">
+        <v>22.2</v>
+      </c>
+      <c r="M15" s="41">
+        <v>22.3</v>
+      </c>
+      <c r="N15" s="41">
+        <v>22.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="46">
-        <v>2862420.0</v>
-      </c>
-      <c r="C16" s="47">
-        <v>174773.0</v>
-      </c>
-      <c r="D16" s="47">
-        <v>146534.0</v>
-      </c>
-      <c r="E16" s="47">
-        <v>95593.0</v>
-      </c>
-      <c r="F16" s="47">
-        <v>363735.0</v>
-      </c>
-      <c r="G16" s="47">
-        <v>78598.0</v>
-      </c>
-      <c r="H16" s="47">
-        <v>73781.0</v>
-      </c>
-      <c r="I16" s="47">
-        <v>189672.0</v>
-      </c>
-      <c r="J16" s="47">
-        <v>213523.0</v>
-      </c>
-      <c r="K16" s="47">
-        <v>231191.0</v>
-      </c>
-      <c r="L16" s="47">
-        <v>238712.0</v>
-      </c>
-      <c r="M16" s="47">
-        <v>382167.0</v>
-      </c>
-      <c r="N16" s="47">
-        <v>310008.0</v>
-      </c>
-      <c r="O16" s="47">
-        <v>225045.0</v>
-      </c>
-      <c r="P16" s="47">
-        <v>70732.0</v>
-      </c>
-      <c r="Q16" s="47">
-        <v>36417.0</v>
-      </c>
-      <c r="R16" s="47">
-        <v>22803.0</v>
-      </c>
-      <c r="S16" s="48">
-        <v>9136.0</v>
+      <c r="B16" s="41">
+        <v>19.8</v>
+      </c>
+      <c r="C16" s="41">
+        <v>17.2</v>
+      </c>
+      <c r="D16" s="41">
+        <v>16.5</v>
+      </c>
+      <c r="E16" s="41">
+        <v>16.4</v>
+      </c>
+      <c r="F16" s="41">
+        <v>17.7</v>
+      </c>
+      <c r="G16" s="41">
+        <v>17.9</v>
+      </c>
+      <c r="H16" s="41">
+        <v>18.0</v>
+      </c>
+      <c r="I16" s="41">
+        <v>18.2</v>
+      </c>
+      <c r="J16" s="41">
+        <v>17.7</v>
+      </c>
+      <c r="K16" s="41">
+        <v>18.3</v>
+      </c>
+      <c r="L16" s="41">
+        <v>19.8</v>
+      </c>
+      <c r="M16" s="41">
+        <v>20.6</v>
+      </c>
+      <c r="N16" s="41">
+        <v>22.3</v>
       </c>
     </row>
   </sheetData>
@@ -40518,707 +43466,947 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50">
-        <v>2009.0</v>
-      </c>
-      <c r="C1" s="50">
-        <v>2010.0</v>
-      </c>
-      <c r="D1" s="50">
-        <v>2011.0</v>
-      </c>
-      <c r="E1" s="50">
-        <v>2012.0</v>
-      </c>
-      <c r="F1" s="50">
-        <v>2013.0</v>
-      </c>
-      <c r="G1" s="50">
-        <v>2014.0</v>
-      </c>
-      <c r="H1" s="50">
-        <v>2015.0</v>
-      </c>
-      <c r="I1" s="50">
-        <v>2016.0</v>
-      </c>
-      <c r="J1" s="50">
-        <v>2017.0</v>
-      </c>
-      <c r="K1" s="50">
-        <v>2018.0</v>
-      </c>
-      <c r="L1" s="50">
-        <v>2019.0</v>
-      </c>
-      <c r="M1" s="50">
-        <v>2020.0</v>
-      </c>
-      <c r="N1" s="50">
-        <v>2021.0</v>
+      <c r="B1" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="52">
-        <v>23.4</v>
-      </c>
-      <c r="C2" s="52">
-        <v>22.0</v>
-      </c>
-      <c r="D2" s="52">
-        <v>21.2</v>
-      </c>
-      <c r="E2" s="52">
-        <v>21.0</v>
-      </c>
-      <c r="F2" s="52">
-        <v>22.5</v>
-      </c>
-      <c r="G2" s="52">
-        <v>23.3</v>
-      </c>
-      <c r="H2" s="52">
-        <v>23.5</v>
-      </c>
-      <c r="I2" s="52">
-        <v>22.8</v>
-      </c>
-      <c r="J2" s="52">
-        <v>22.1</v>
-      </c>
-      <c r="K2" s="52">
-        <v>23.3</v>
-      </c>
-      <c r="L2" s="52">
-        <v>24.3</v>
-      </c>
-      <c r="M2" s="52">
-        <v>24.6</v>
-      </c>
-      <c r="N2" s="52">
-        <v>25.9</v>
+      <c r="B2" s="47">
+        <v>3.5271296E7</v>
+      </c>
+      <c r="C2" s="47">
+        <v>2504362.0</v>
+      </c>
+      <c r="D2" s="47">
+        <v>2139728.0</v>
+      </c>
+      <c r="E2" s="47">
+        <v>1422574.0</v>
+      </c>
+      <c r="F2" s="47">
+        <v>4999115.0</v>
+      </c>
+      <c r="G2" s="47">
+        <v>1052812.0</v>
+      </c>
+      <c r="H2" s="47">
+        <v>1016127.0</v>
+      </c>
+      <c r="I2" s="47">
+        <v>2644952.0</v>
+      </c>
+      <c r="J2" s="47">
+        <v>3156976.0</v>
+      </c>
+      <c r="K2" s="47">
+        <v>3130619.0</v>
+      </c>
+      <c r="L2" s="47">
+        <v>2747566.0</v>
+      </c>
+      <c r="M2" s="47">
+        <v>4154082.0</v>
+      </c>
+      <c r="N2" s="47">
+        <v>3198960.0</v>
+      </c>
+      <c r="O2" s="47">
+        <v>2118734.0</v>
+      </c>
+      <c r="P2" s="47">
+        <v>503142.0</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>247275.0</v>
+      </c>
+      <c r="R2" s="47">
+        <v>161300.0</v>
+      </c>
+      <c r="S2" s="48">
+        <v>72972.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="54">
-        <v>24.7</v>
-      </c>
-      <c r="C3" s="54">
-        <v>22.7</v>
-      </c>
-      <c r="D3" s="54">
-        <v>21.2</v>
-      </c>
-      <c r="E3" s="54">
-        <v>22.4</v>
-      </c>
-      <c r="F3" s="54">
-        <v>22.7</v>
-      </c>
-      <c r="G3" s="54">
-        <v>23.4</v>
-      </c>
-      <c r="H3" s="54">
-        <v>23.3</v>
-      </c>
-      <c r="I3" s="54">
-        <v>21.9</v>
-      </c>
-      <c r="J3" s="54">
-        <v>20.6</v>
-      </c>
-      <c r="K3" s="54">
-        <v>21.6</v>
-      </c>
-      <c r="L3" s="54">
-        <v>21.8</v>
-      </c>
-      <c r="M3" s="54">
-        <v>20.6</v>
-      </c>
-      <c r="N3" s="54">
-        <v>20.8</v>
+      <c r="B3" s="47">
+        <v>1948488.0</v>
+      </c>
+      <c r="C3" s="50">
+        <v>117222.0</v>
+      </c>
+      <c r="D3" s="50">
+        <v>111480.0</v>
+      </c>
+      <c r="E3" s="50">
+        <v>79774.0</v>
+      </c>
+      <c r="F3" s="50">
+        <v>291148.0</v>
+      </c>
+      <c r="G3" s="50">
+        <v>62487.0</v>
+      </c>
+      <c r="H3" s="50">
+        <v>60087.0</v>
+      </c>
+      <c r="I3" s="50">
+        <v>156696.0</v>
+      </c>
+      <c r="J3" s="50">
+        <v>162842.0</v>
+      </c>
+      <c r="K3" s="50">
+        <v>183468.0</v>
+      </c>
+      <c r="L3" s="50">
+        <v>160468.0</v>
+      </c>
+      <c r="M3" s="50">
+        <v>238689.0</v>
+      </c>
+      <c r="N3" s="50">
+        <v>172184.0</v>
+      </c>
+      <c r="O3" s="50">
+        <v>104236.0</v>
+      </c>
+      <c r="P3" s="50">
+        <v>25490.0</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>12619.0</v>
+      </c>
+      <c r="R3" s="50">
+        <v>7011.0</v>
+      </c>
+      <c r="S3" s="51">
+        <v>2587.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="54">
-        <v>24.5</v>
-      </c>
-      <c r="C4" s="54">
-        <v>22.6</v>
-      </c>
-      <c r="D4" s="54">
-        <v>21.0</v>
-      </c>
-      <c r="E4" s="54">
-        <v>21.3</v>
-      </c>
-      <c r="F4" s="54">
-        <v>23.1</v>
-      </c>
-      <c r="G4" s="54">
-        <v>24.0</v>
-      </c>
-      <c r="H4" s="54">
-        <v>24.1</v>
-      </c>
-      <c r="I4" s="54">
-        <v>23.4</v>
-      </c>
-      <c r="J4" s="54">
-        <v>22.6</v>
-      </c>
-      <c r="K4" s="54">
-        <v>23.8</v>
-      </c>
-      <c r="L4" s="54">
-        <v>25.1</v>
-      </c>
-      <c r="M4" s="54">
-        <v>25.8</v>
-      </c>
-      <c r="N4" s="54">
-        <v>26.3</v>
+      <c r="B4" s="47">
+        <v>3253528.0</v>
+      </c>
+      <c r="C4" s="50">
+        <v>238114.0</v>
+      </c>
+      <c r="D4" s="50">
+        <v>201171.0</v>
+      </c>
+      <c r="E4" s="50">
+        <v>133937.0</v>
+      </c>
+      <c r="F4" s="50">
+        <v>463779.0</v>
+      </c>
+      <c r="G4" s="50">
+        <v>92860.0</v>
+      </c>
+      <c r="H4" s="50">
+        <v>88141.0</v>
+      </c>
+      <c r="I4" s="50">
+        <v>234552.0</v>
+      </c>
+      <c r="J4" s="50">
+        <v>292738.0</v>
+      </c>
+      <c r="K4" s="50">
+        <v>278674.0</v>
+      </c>
+      <c r="L4" s="50">
+        <v>245158.0</v>
+      </c>
+      <c r="M4" s="50">
+        <v>390260.0</v>
+      </c>
+      <c r="N4" s="50">
+        <v>313485.0</v>
+      </c>
+      <c r="O4" s="50">
+        <v>195797.0</v>
+      </c>
+      <c r="P4" s="50">
+        <v>43251.0</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>21204.0</v>
+      </c>
+      <c r="R4" s="50">
+        <v>14687.0</v>
+      </c>
+      <c r="S4" s="51">
+        <v>5720.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="54">
-        <v>21.7</v>
-      </c>
-      <c r="C5" s="54">
-        <v>20.7</v>
-      </c>
-      <c r="D5" s="54">
-        <v>19.4</v>
-      </c>
-      <c r="E5" s="54">
-        <v>19.9</v>
-      </c>
-      <c r="F5" s="54">
-        <v>21.1</v>
-      </c>
-      <c r="G5" s="54">
-        <v>21.6</v>
-      </c>
-      <c r="H5" s="54">
-        <v>21.9</v>
-      </c>
-      <c r="I5" s="54">
-        <v>20.9</v>
-      </c>
-      <c r="J5" s="54">
-        <v>20.0</v>
-      </c>
-      <c r="K5" s="54">
-        <v>21.4</v>
-      </c>
-      <c r="L5" s="54">
-        <v>21.5</v>
-      </c>
-      <c r="M5" s="54">
-        <v>21.5</v>
-      </c>
-      <c r="N5" s="54">
-        <v>22.0</v>
+      <c r="B5" s="47">
+        <v>1976823.0</v>
+      </c>
+      <c r="C5" s="50">
+        <v>123964.0</v>
+      </c>
+      <c r="D5" s="50">
+        <v>112574.0</v>
+      </c>
+      <c r="E5" s="50">
+        <v>75165.0</v>
+      </c>
+      <c r="F5" s="50">
+        <v>263020.0</v>
+      </c>
+      <c r="G5" s="50">
+        <v>57621.0</v>
+      </c>
+      <c r="H5" s="50">
+        <v>55586.0</v>
+      </c>
+      <c r="I5" s="50">
+        <v>142076.0</v>
+      </c>
+      <c r="J5" s="50">
+        <v>171638.0</v>
+      </c>
+      <c r="K5" s="50">
+        <v>176292.0</v>
+      </c>
+      <c r="L5" s="50">
+        <v>156292.0</v>
+      </c>
+      <c r="M5" s="50">
+        <v>247944.0</v>
+      </c>
+      <c r="N5" s="50">
+        <v>202541.0</v>
+      </c>
+      <c r="O5" s="50">
+        <v>132422.0</v>
+      </c>
+      <c r="P5" s="50">
+        <v>30038.0</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>14963.0</v>
+      </c>
+      <c r="R5" s="50">
+        <v>10949.0</v>
+      </c>
+      <c r="S5" s="51">
+        <v>3738.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="54">
-        <v>24.1</v>
-      </c>
-      <c r="C6" s="54">
-        <v>22.4</v>
-      </c>
-      <c r="D6" s="54">
-        <v>21.4</v>
-      </c>
-      <c r="E6" s="54">
-        <v>21.2</v>
-      </c>
-      <c r="F6" s="54">
-        <v>22.6</v>
-      </c>
-      <c r="G6" s="54">
-        <v>24.2</v>
-      </c>
-      <c r="H6" s="54">
-        <v>25.2</v>
-      </c>
-      <c r="I6" s="54">
-        <v>24.5</v>
-      </c>
-      <c r="J6" s="54">
-        <v>23.6</v>
-      </c>
-      <c r="K6" s="54">
-        <v>25.2</v>
-      </c>
-      <c r="L6" s="54">
-        <v>26.7</v>
-      </c>
-      <c r="M6" s="54">
-        <v>27.3</v>
-      </c>
-      <c r="N6" s="54">
-        <v>29.0</v>
+      <c r="B6" s="47">
+        <v>1443408.0</v>
+      </c>
+      <c r="C6" s="50">
+        <v>113035.0</v>
+      </c>
+      <c r="D6" s="50">
+        <v>92136.0</v>
+      </c>
+      <c r="E6" s="50">
+        <v>60155.0</v>
+      </c>
+      <c r="F6" s="50">
+        <v>207401.0</v>
+      </c>
+      <c r="G6" s="50">
+        <v>46864.0</v>
+      </c>
+      <c r="H6" s="50">
+        <v>44582.0</v>
+      </c>
+      <c r="I6" s="50">
+        <v>114973.0</v>
+      </c>
+      <c r="J6" s="50">
+        <v>137392.0</v>
+      </c>
+      <c r="K6" s="50">
+        <v>133136.0</v>
+      </c>
+      <c r="L6" s="50">
+        <v>106794.0</v>
+      </c>
+      <c r="M6" s="50">
+        <v>152352.0</v>
+      </c>
+      <c r="N6" s="50">
+        <v>114487.0</v>
+      </c>
+      <c r="O6" s="50">
+        <v>80089.0</v>
+      </c>
+      <c r="P6" s="50">
+        <v>20594.0</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>11153.0</v>
+      </c>
+      <c r="R6" s="50">
+        <v>5799.0</v>
+      </c>
+      <c r="S6" s="51">
+        <v>2466.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="54">
-        <v>24.4</v>
-      </c>
-      <c r="C7" s="54">
-        <v>23.7</v>
-      </c>
-      <c r="D7" s="54">
-        <v>23.3</v>
-      </c>
-      <c r="E7" s="54">
-        <v>23.3</v>
-      </c>
-      <c r="F7" s="54">
-        <v>25.1</v>
-      </c>
-      <c r="G7" s="54">
-        <v>25.8</v>
-      </c>
-      <c r="H7" s="54">
-        <v>26.2</v>
-      </c>
-      <c r="I7" s="54">
-        <v>25.4</v>
-      </c>
-      <c r="J7" s="54">
-        <v>24.6</v>
-      </c>
-      <c r="K7" s="54">
-        <v>25.8</v>
-      </c>
-      <c r="L7" s="54">
-        <v>26.7</v>
-      </c>
-      <c r="M7" s="54">
-        <v>27.3</v>
-      </c>
-      <c r="N7" s="54">
-        <v>28.8</v>
+      <c r="B7" s="47">
+        <v>3408345.0</v>
+      </c>
+      <c r="C7" s="50">
+        <v>264976.0</v>
+      </c>
+      <c r="D7" s="50">
+        <v>225409.0</v>
+      </c>
+      <c r="E7" s="50">
+        <v>148481.0</v>
+      </c>
+      <c r="F7" s="50">
+        <v>503897.0</v>
+      </c>
+      <c r="G7" s="50">
+        <v>104310.0</v>
+      </c>
+      <c r="H7" s="50">
+        <v>105567.0</v>
+      </c>
+      <c r="I7" s="50">
+        <v>277038.0</v>
+      </c>
+      <c r="J7" s="50">
+        <v>318763.0</v>
+      </c>
+      <c r="K7" s="50">
+        <v>307699.0</v>
+      </c>
+      <c r="L7" s="50">
+        <v>261218.0</v>
+      </c>
+      <c r="M7" s="50">
+        <v>367444.0</v>
+      </c>
+      <c r="N7" s="50">
+        <v>267863.0</v>
+      </c>
+      <c r="O7" s="50">
+        <v>179209.0</v>
+      </c>
+      <c r="P7" s="50">
+        <v>38091.0</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>18474.0</v>
+      </c>
+      <c r="R7" s="50">
+        <v>12379.0</v>
+      </c>
+      <c r="S7" s="51">
+        <v>7527.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="54">
-        <v>21.6</v>
-      </c>
-      <c r="C8" s="54">
-        <v>21.2</v>
-      </c>
-      <c r="D8" s="54">
-        <v>20.6</v>
-      </c>
-      <c r="E8" s="54">
-        <v>20.4</v>
-      </c>
-      <c r="F8" s="54">
-        <v>21.6</v>
-      </c>
-      <c r="G8" s="54">
-        <v>22.2</v>
-      </c>
-      <c r="H8" s="54">
-        <v>22.0</v>
-      </c>
-      <c r="I8" s="54">
-        <v>22.3</v>
-      </c>
-      <c r="J8" s="54">
-        <v>21.6</v>
-      </c>
-      <c r="K8" s="54">
-        <v>22.2</v>
-      </c>
-      <c r="L8" s="54">
-        <v>23.0</v>
-      </c>
-      <c r="M8" s="54">
-        <v>23.8</v>
-      </c>
-      <c r="N8" s="54">
-        <v>26.0</v>
+      <c r="B8" s="47">
+        <v>1033857.0</v>
+      </c>
+      <c r="C8" s="50">
+        <v>71899.0</v>
+      </c>
+      <c r="D8" s="50">
+        <v>61901.0</v>
+      </c>
+      <c r="E8" s="50">
+        <v>40088.0</v>
+      </c>
+      <c r="F8" s="50">
+        <v>140881.0</v>
+      </c>
+      <c r="G8" s="50">
+        <v>30398.0</v>
+      </c>
+      <c r="H8" s="50">
+        <v>28581.0</v>
+      </c>
+      <c r="I8" s="50">
+        <v>72501.0</v>
+      </c>
+      <c r="J8" s="50">
+        <v>93167.0</v>
+      </c>
+      <c r="K8" s="50">
+        <v>93910.0</v>
+      </c>
+      <c r="L8" s="50">
+        <v>84228.0</v>
+      </c>
+      <c r="M8" s="50">
+        <v>126289.0</v>
+      </c>
+      <c r="N8" s="50">
+        <v>97846.0</v>
+      </c>
+      <c r="O8" s="50">
+        <v>64329.0</v>
+      </c>
+      <c r="P8" s="50">
+        <v>14602.0</v>
+      </c>
+      <c r="Q8" s="50">
+        <v>6594.0</v>
+      </c>
+      <c r="R8" s="50">
+        <v>4566.0</v>
+      </c>
+      <c r="S8" s="51">
+        <v>2077.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="54">
-        <v>22.9</v>
-      </c>
-      <c r="C9" s="54">
-        <v>21.5</v>
-      </c>
-      <c r="D9" s="54">
-        <v>21.8</v>
-      </c>
-      <c r="E9" s="54">
-        <v>20.7</v>
-      </c>
-      <c r="F9" s="54">
-        <v>22.9</v>
-      </c>
-      <c r="G9" s="54">
-        <v>24.6</v>
-      </c>
-      <c r="H9" s="54">
-        <v>24.0</v>
-      </c>
-      <c r="I9" s="54">
-        <v>23.7</v>
-      </c>
-      <c r="J9" s="54">
-        <v>22.9</v>
-      </c>
-      <c r="K9" s="54">
-        <v>24.4</v>
-      </c>
-      <c r="L9" s="54">
-        <v>25.8</v>
-      </c>
-      <c r="M9" s="54">
-        <v>26.3</v>
-      </c>
-      <c r="N9" s="54">
-        <v>27.6</v>
+      <c r="B9" s="47">
+        <v>2931056.0</v>
+      </c>
+      <c r="C9" s="50">
+        <v>223426.0</v>
+      </c>
+      <c r="D9" s="50">
+        <v>185889.0</v>
+      </c>
+      <c r="E9" s="50">
+        <v>121475.0</v>
+      </c>
+      <c r="F9" s="50">
+        <v>405334.0</v>
+      </c>
+      <c r="G9" s="50">
+        <v>84259.0</v>
+      </c>
+      <c r="H9" s="50">
+        <v>82909.0</v>
+      </c>
+      <c r="I9" s="50">
+        <v>214235.0</v>
+      </c>
+      <c r="J9" s="50">
+        <v>276056.0</v>
+      </c>
+      <c r="K9" s="50">
+        <v>262150.0</v>
+      </c>
+      <c r="L9" s="50">
+        <v>222193.0</v>
+      </c>
+      <c r="M9" s="50">
+        <v>350440.0</v>
+      </c>
+      <c r="N9" s="50">
+        <v>263411.0</v>
+      </c>
+      <c r="O9" s="50">
+        <v>166571.0</v>
+      </c>
+      <c r="P9" s="50">
+        <v>36993.0</v>
+      </c>
+      <c r="Q9" s="50">
+        <v>18272.0</v>
+      </c>
+      <c r="R9" s="50">
+        <v>11947.0</v>
+      </c>
+      <c r="S9" s="51">
+        <v>5496.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="54">
-        <v>24.2</v>
-      </c>
-      <c r="C10" s="54">
-        <v>23.2</v>
-      </c>
-      <c r="D10" s="54">
-        <v>22.4</v>
-      </c>
-      <c r="E10" s="54">
-        <v>22.1</v>
-      </c>
-      <c r="F10" s="54">
-        <v>24.1</v>
-      </c>
-      <c r="G10" s="54">
-        <v>25.2</v>
-      </c>
-      <c r="H10" s="54">
-        <v>25.0</v>
-      </c>
-      <c r="I10" s="54">
-        <v>24.4</v>
-      </c>
-      <c r="J10" s="54">
-        <v>24.4</v>
-      </c>
-      <c r="K10" s="54">
-        <v>26.3</v>
-      </c>
-      <c r="L10" s="54">
-        <v>26.2</v>
-      </c>
-      <c r="M10" s="54">
-        <v>25.9</v>
-      </c>
-      <c r="N10" s="54">
-        <v>27.7</v>
+      <c r="B10" s="47">
+        <v>4031324.0</v>
+      </c>
+      <c r="C10" s="50">
+        <v>300814.0</v>
+      </c>
+      <c r="D10" s="50">
+        <v>261407.0</v>
+      </c>
+      <c r="E10" s="50">
+        <v>172052.0</v>
+      </c>
+      <c r="F10" s="50">
+        <v>601212.0</v>
+      </c>
+      <c r="G10" s="50">
+        <v>124538.0</v>
+      </c>
+      <c r="H10" s="50">
+        <v>121010.0</v>
+      </c>
+      <c r="I10" s="50">
+        <v>311250.0</v>
+      </c>
+      <c r="J10" s="50">
+        <v>373731.0</v>
+      </c>
+      <c r="K10" s="50">
+        <v>356486.0</v>
+      </c>
+      <c r="L10" s="50">
+        <v>306309.0</v>
+      </c>
+      <c r="M10" s="50">
+        <v>434269.0</v>
+      </c>
+      <c r="N10" s="50">
+        <v>332110.0</v>
+      </c>
+      <c r="O10" s="50">
+        <v>234049.0</v>
+      </c>
+      <c r="P10" s="50">
+        <v>53717.0</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>26604.0</v>
+      </c>
+      <c r="R10" s="50">
+        <v>15316.0</v>
+      </c>
+      <c r="S10" s="51">
+        <v>6450.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="54">
-        <v>24.9</v>
-      </c>
-      <c r="C11" s="54">
-        <v>23.7</v>
-      </c>
-      <c r="D11" s="54">
-        <v>24.6</v>
-      </c>
-      <c r="E11" s="54">
-        <v>23.4</v>
-      </c>
-      <c r="F11" s="54">
-        <v>24.7</v>
-      </c>
-      <c r="G11" s="54">
-        <v>26.0</v>
-      </c>
-      <c r="H11" s="54">
-        <v>27.0</v>
-      </c>
-      <c r="I11" s="54">
-        <v>25.7</v>
-      </c>
-      <c r="J11" s="54">
-        <v>26.1</v>
-      </c>
-      <c r="K11" s="54">
-        <v>26.9</v>
-      </c>
-      <c r="L11" s="54">
-        <v>28.0</v>
-      </c>
-      <c r="M11" s="54">
-        <v>28.1</v>
-      </c>
-      <c r="N11" s="54">
-        <v>29.9</v>
+      <c r="B11" s="47">
+        <v>2743201.0</v>
+      </c>
+      <c r="C11" s="50">
+        <v>220361.0</v>
+      </c>
+      <c r="D11" s="50">
+        <v>186589.0</v>
+      </c>
+      <c r="E11" s="50">
+        <v>121793.0</v>
+      </c>
+      <c r="F11" s="50">
+        <v>407306.0</v>
+      </c>
+      <c r="G11" s="50">
+        <v>82266.0</v>
+      </c>
+      <c r="H11" s="50">
+        <v>84080.0</v>
+      </c>
+      <c r="I11" s="50">
+        <v>223816.0</v>
+      </c>
+      <c r="J11" s="50">
+        <v>259175.0</v>
+      </c>
+      <c r="K11" s="50">
+        <v>245696.0</v>
+      </c>
+      <c r="L11" s="50">
+        <v>205810.0</v>
+      </c>
+      <c r="M11" s="50">
+        <v>293168.0</v>
+      </c>
+      <c r="N11" s="50">
+        <v>219107.0</v>
+      </c>
+      <c r="O11" s="50">
+        <v>135256.0</v>
+      </c>
+      <c r="P11" s="50">
+        <v>29014.0</v>
+      </c>
+      <c r="Q11" s="50">
+        <v>14060.0</v>
+      </c>
+      <c r="R11" s="50">
+        <v>9424.0</v>
+      </c>
+      <c r="S11" s="51">
+        <v>6280.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="54">
-        <v>23.6</v>
-      </c>
-      <c r="C12" s="54">
-        <v>22.5</v>
-      </c>
-      <c r="D12" s="54">
-        <v>21.2</v>
-      </c>
-      <c r="E12" s="54">
-        <v>21.1</v>
-      </c>
-      <c r="F12" s="54">
-        <v>22.1</v>
-      </c>
-      <c r="G12" s="54">
-        <v>22.6</v>
-      </c>
-      <c r="H12" s="54">
-        <v>22.8</v>
-      </c>
-      <c r="I12" s="54">
-        <v>22.1</v>
-      </c>
-      <c r="J12" s="54">
-        <v>21.8</v>
-      </c>
-      <c r="K12" s="54">
-        <v>22.3</v>
-      </c>
-      <c r="L12" s="54">
-        <v>24.8</v>
-      </c>
-      <c r="M12" s="54">
-        <v>24.7</v>
-      </c>
-      <c r="N12" s="54">
-        <v>26.7</v>
+      <c r="B12" s="47">
+        <v>878591.0</v>
+      </c>
+      <c r="C12" s="50">
+        <v>63752.0</v>
+      </c>
+      <c r="D12" s="50">
+        <v>51452.0</v>
+      </c>
+      <c r="E12" s="50">
+        <v>34248.0</v>
+      </c>
+      <c r="F12" s="50">
+        <v>126856.0</v>
+      </c>
+      <c r="G12" s="50">
+        <v>27327.0</v>
+      </c>
+      <c r="H12" s="50">
+        <v>27349.0</v>
+      </c>
+      <c r="I12" s="50">
+        <v>68344.0</v>
+      </c>
+      <c r="J12" s="50">
+        <v>80120.0</v>
+      </c>
+      <c r="K12" s="50">
+        <v>87757.0</v>
+      </c>
+      <c r="L12" s="50">
+        <v>76226.0</v>
+      </c>
+      <c r="M12" s="50">
+        <v>100881.0</v>
+      </c>
+      <c r="N12" s="50">
+        <v>71007.0</v>
+      </c>
+      <c r="O12" s="50">
+        <v>47751.0</v>
+      </c>
+      <c r="P12" s="50">
+        <v>8496.0</v>
+      </c>
+      <c r="Q12" s="50">
+        <v>3147.0</v>
+      </c>
+      <c r="R12" s="50">
+        <v>2318.0</v>
+      </c>
+      <c r="S12" s="51">
+        <v>1560.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="54">
-        <v>22.7</v>
-      </c>
-      <c r="C13" s="54">
-        <v>20.8</v>
-      </c>
-      <c r="D13" s="54">
-        <v>20.1</v>
-      </c>
-      <c r="E13" s="54">
-        <v>19.7</v>
-      </c>
-      <c r="F13" s="54">
-        <v>20.3</v>
-      </c>
-      <c r="G13" s="54">
-        <v>21.1</v>
-      </c>
-      <c r="H13" s="54">
-        <v>21.1</v>
-      </c>
-      <c r="I13" s="54">
-        <v>20.3</v>
-      </c>
-      <c r="J13" s="54">
-        <v>19.3</v>
-      </c>
-      <c r="K13" s="54">
-        <v>20.6</v>
-      </c>
-      <c r="L13" s="54">
-        <v>21.9</v>
-      </c>
-      <c r="M13" s="54">
-        <v>22.4</v>
-      </c>
-      <c r="N13" s="54">
-        <v>24.9</v>
+      <c r="B13" s="47">
+        <v>2939697.0</v>
+      </c>
+      <c r="C13" s="50">
+        <v>191691.0</v>
+      </c>
+      <c r="D13" s="50">
+        <v>158828.0</v>
+      </c>
+      <c r="E13" s="50">
+        <v>109212.0</v>
+      </c>
+      <c r="F13" s="50">
+        <v>406218.0</v>
+      </c>
+      <c r="G13" s="50">
+        <v>86344.0</v>
+      </c>
+      <c r="H13" s="50">
+        <v>80450.0</v>
+      </c>
+      <c r="I13" s="50">
+        <v>207787.0</v>
+      </c>
+      <c r="J13" s="50">
+        <v>248390.0</v>
+      </c>
+      <c r="K13" s="50">
+        <v>267691.0</v>
+      </c>
+      <c r="L13" s="50">
+        <v>237199.0</v>
+      </c>
+      <c r="M13" s="50">
+        <v>348747.0</v>
+      </c>
+      <c r="N13" s="50">
+        <v>291342.0</v>
+      </c>
+      <c r="O13" s="50">
+        <v>206442.0</v>
+      </c>
+      <c r="P13" s="50">
+        <v>51574.0</v>
+      </c>
+      <c r="Q13" s="50">
+        <v>24521.0</v>
+      </c>
+      <c r="R13" s="50">
+        <v>16557.0</v>
+      </c>
+      <c r="S13" s="51">
+        <v>6704.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="54">
-        <v>22.6</v>
-      </c>
-      <c r="C14" s="54">
-        <v>22.1</v>
-      </c>
-      <c r="D14" s="54">
-        <v>20.8</v>
-      </c>
-      <c r="E14" s="54">
-        <v>20.3</v>
-      </c>
-      <c r="F14" s="54">
-        <v>21.9</v>
-      </c>
-      <c r="G14" s="54">
-        <v>22.5</v>
-      </c>
-      <c r="H14" s="54">
-        <v>22.8</v>
-      </c>
-      <c r="I14" s="54">
-        <v>22.2</v>
-      </c>
-      <c r="J14" s="54">
-        <v>21.0</v>
-      </c>
-      <c r="K14" s="54">
-        <v>22.3</v>
-      </c>
-      <c r="L14" s="54">
-        <v>23.6</v>
-      </c>
-      <c r="M14" s="54">
-        <v>24.6</v>
-      </c>
-      <c r="N14" s="54">
-        <v>25.7</v>
+      <c r="B14" s="47">
+        <v>3896395.0</v>
+      </c>
+      <c r="C14" s="50">
+        <v>276703.0</v>
+      </c>
+      <c r="D14" s="50">
+        <v>230616.0</v>
+      </c>
+      <c r="E14" s="50">
+        <v>152869.0</v>
+      </c>
+      <c r="F14" s="50">
+        <v>537640.0</v>
+      </c>
+      <c r="G14" s="50">
+        <v>113986.0</v>
+      </c>
+      <c r="H14" s="50">
+        <v>106163.0</v>
+      </c>
+      <c r="I14" s="50">
+        <v>280022.0</v>
+      </c>
+      <c r="J14" s="50">
+        <v>359429.0</v>
+      </c>
+      <c r="K14" s="50">
+        <v>338091.0</v>
+      </c>
+      <c r="L14" s="50">
+        <v>290226.0</v>
+      </c>
+      <c r="M14" s="50">
+        <v>473408.0</v>
+      </c>
+      <c r="N14" s="50">
+        <v>377034.0</v>
+      </c>
+      <c r="O14" s="50">
+        <v>244524.0</v>
+      </c>
+      <c r="P14" s="50">
+        <v>57247.0</v>
+      </c>
+      <c r="Q14" s="50">
+        <v>29416.0</v>
+      </c>
+      <c r="R14" s="50">
+        <v>19657.0</v>
+      </c>
+      <c r="S14" s="51">
+        <v>9364.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="54">
-        <v>25.4</v>
-      </c>
-      <c r="C15" s="54">
-        <v>22.7</v>
-      </c>
-      <c r="D15" s="54">
-        <v>21.7</v>
-      </c>
-      <c r="E15" s="54">
-        <v>21.2</v>
-      </c>
-      <c r="F15" s="54">
-        <v>22.7</v>
-      </c>
-      <c r="G15" s="54">
-        <v>23.7</v>
-      </c>
-      <c r="H15" s="54">
-        <v>22.8</v>
-      </c>
-      <c r="I15" s="54">
-        <v>22.2</v>
-      </c>
-      <c r="J15" s="54">
-        <v>21.0</v>
-      </c>
-      <c r="K15" s="54">
-        <v>22.0</v>
-      </c>
-      <c r="L15" s="54">
-        <v>22.2</v>
-      </c>
-      <c r="M15" s="54">
-        <v>22.3</v>
-      </c>
-      <c r="N15" s="54">
-        <v>22.3</v>
+      <c r="B15" s="47">
+        <v>1924163.0</v>
+      </c>
+      <c r="C15" s="50">
+        <v>123632.0</v>
+      </c>
+      <c r="D15" s="50">
+        <v>113742.0</v>
+      </c>
+      <c r="E15" s="50">
+        <v>77732.0</v>
+      </c>
+      <c r="F15" s="50">
+        <v>280688.0</v>
+      </c>
+      <c r="G15" s="50">
+        <v>60954.0</v>
+      </c>
+      <c r="H15" s="50">
+        <v>57841.0</v>
+      </c>
+      <c r="I15" s="50">
+        <v>151990.0</v>
+      </c>
+      <c r="J15" s="50">
+        <v>170012.0</v>
+      </c>
+      <c r="K15" s="50">
+        <v>168378.0</v>
+      </c>
+      <c r="L15" s="50">
+        <v>156733.0</v>
+      </c>
+      <c r="M15" s="50">
+        <v>248024.0</v>
+      </c>
+      <c r="N15" s="50">
+        <v>166535.0</v>
+      </c>
+      <c r="O15" s="50">
+        <v>103014.0</v>
+      </c>
+      <c r="P15" s="50">
+        <v>23303.0</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>9831.0</v>
+      </c>
+      <c r="R15" s="50">
+        <v>7887.0</v>
+      </c>
+      <c r="S15" s="51">
+        <v>3867.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="54">
-        <v>19.8</v>
-      </c>
-      <c r="C16" s="54">
-        <v>17.2</v>
-      </c>
-      <c r="D16" s="54">
-        <v>16.5</v>
-      </c>
-      <c r="E16" s="54">
-        <v>16.4</v>
-      </c>
-      <c r="F16" s="54">
-        <v>17.7</v>
-      </c>
-      <c r="G16" s="54">
-        <v>17.9</v>
-      </c>
-      <c r="H16" s="54">
-        <v>18.0</v>
-      </c>
-      <c r="I16" s="54">
-        <v>18.2</v>
-      </c>
-      <c r="J16" s="54">
-        <v>17.7</v>
-      </c>
-      <c r="K16" s="54">
-        <v>18.3</v>
-      </c>
-      <c r="L16" s="54">
-        <v>19.8</v>
-      </c>
-      <c r="M16" s="54">
-        <v>20.6</v>
-      </c>
-      <c r="N16" s="54">
-        <v>22.3</v>
+      <c r="B16" s="52">
+        <v>2862420.0</v>
+      </c>
+      <c r="C16" s="53">
+        <v>174773.0</v>
+      </c>
+      <c r="D16" s="53">
+        <v>146534.0</v>
+      </c>
+      <c r="E16" s="53">
+        <v>95593.0</v>
+      </c>
+      <c r="F16" s="53">
+        <v>363735.0</v>
+      </c>
+      <c r="G16" s="53">
+        <v>78598.0</v>
+      </c>
+      <c r="H16" s="53">
+        <v>73781.0</v>
+      </c>
+      <c r="I16" s="53">
+        <v>189672.0</v>
+      </c>
+      <c r="J16" s="53">
+        <v>213523.0</v>
+      </c>
+      <c r="K16" s="53">
+        <v>231191.0</v>
+      </c>
+      <c r="L16" s="53">
+        <v>238712.0</v>
+      </c>
+      <c r="M16" s="53">
+        <v>382167.0</v>
+      </c>
+      <c r="N16" s="53">
+        <v>310008.0</v>
+      </c>
+      <c r="O16" s="53">
+        <v>225045.0</v>
+      </c>
+      <c r="P16" s="53">
+        <v>70732.0</v>
+      </c>
+      <c r="Q16" s="53">
+        <v>36417.0</v>
+      </c>
+      <c r="R16" s="53">
+        <v>22803.0</v>
+      </c>
+      <c r="S16" s="54">
+        <v>9136.0</v>
       </c>
     </row>
   </sheetData>
